--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42F946-952E-4FAB-9886-269ECFF9206C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C34203-37F8-4C29-B7A7-8BF04BE01DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13872" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{97C891ED-ED1B-44F0-A8FF-ED720B6E75ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{97C891ED-ED1B-44F0-A8FF-ED720B6E75ED}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Observations</t>
   </si>
@@ -46,9 +48,6 @@
   </si>
   <si>
     <t>Size of pay.</t>
-  </si>
-  <si>
-    <t>Trans. cost</t>
   </si>
   <si>
     <t>Days to rec.</t>
@@ -195,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +215,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,9 +267,6 @@
           <cell r="D2" t="str">
             <v>(3)</v>
           </cell>
-          <cell r="E2" t="str">
-            <v>(4)</v>
-          </cell>
           <cell r="F2" t="str">
             <v>(5)</v>
           </cell>
@@ -274,31 +276,25 @@
           <cell r="H2" t="str">
             <v>(7)</v>
           </cell>
-          <cell r="I2" t="str">
-            <v>(8)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-8.54***</v>
+            <v>-8.54</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.19***</v>
+            <v>0.19</v>
           </cell>
           <cell r="D5" t="str">
-            <v>37.7</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>15.5***</v>
+            <v>34.0</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-8.51***</v>
+            <v>-8.52</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.0068</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.081***</v>
+            <v>0.081</v>
           </cell>
         </row>
         <row r="6">
@@ -309,10 +305,7 @@
             <v>(0.044)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(51.0)</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>(4.57)</v>
+            <v>(51.2)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(2.68)</v>
@@ -344,9 +337,6 @@
           <cell r="D83" t="str">
             <v/>
           </cell>
-          <cell r="E83" t="str">
-            <v/>
-          </cell>
           <cell r="F83" t="str">
             <v/>
           </cell>
@@ -357,7 +347,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88***</v>
+            <v>0.88</v>
           </cell>
         </row>
         <row r="84">
@@ -371,9 +361,6 @@
             <v/>
           </cell>
           <cell r="D84" t="str">
-            <v/>
-          </cell>
-          <cell r="E84" t="str">
             <v/>
           </cell>
           <cell r="F84" t="str">
@@ -409,9 +396,6 @@
           <cell r="D101" t="str">
             <v>5085</v>
           </cell>
-          <cell r="E101" t="str">
-            <v>2719</v>
-          </cell>
           <cell r="F101" t="str">
             <v>2490</v>
           </cell>
@@ -436,10 +420,7 @@
             <v>1.18</v>
           </cell>
           <cell r="D103" t="str">
-            <v>829.7</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>81.7</v>
+            <v>830.5</v>
           </cell>
           <cell r="F103" t="str">
             <v>92.7</v>
@@ -470,19 +451,16 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-3.01***</v>
+            <v>-2.97</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.17***</v>
+            <v>0.17</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-68.8</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>20.1***</v>
+            <v>-72.6</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-1.59</v>
+            <v>-1.45</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.021</v>
@@ -499,13 +477,10 @@
             <v>(0.051)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(46.6)</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>(5.51)</v>
+            <v>(46.5)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(3.22)</v>
+            <v>(3.21)</v>
           </cell>
           <cell r="G6" t="str">
             <v>(0.020)</v>
@@ -534,9 +509,6 @@
           <cell r="D83" t="str">
             <v/>
           </cell>
-          <cell r="E83" t="str">
-            <v/>
-          </cell>
           <cell r="F83" t="str">
             <v/>
           </cell>
@@ -547,7 +519,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88***</v>
+            <v>0.88</v>
           </cell>
         </row>
         <row r="84">
@@ -563,9 +535,6 @@
           <cell r="D84" t="str">
             <v/>
           </cell>
-          <cell r="E84" t="str">
-            <v/>
-          </cell>
           <cell r="F84" t="str">
             <v/>
           </cell>
@@ -581,7 +550,7 @@
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>0.0063</v>
+            <v>0.0060</v>
           </cell>
         </row>
         <row r="96">
@@ -591,28 +560,25 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>4656</v>
+            <v>4655</v>
           </cell>
           <cell r="C101" t="str">
-            <v>4758</v>
+            <v>4757</v>
           </cell>
           <cell r="D101" t="str">
-            <v>4758</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>2409</v>
+            <v>4757</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2075</v>
+            <v>2073</v>
           </cell>
           <cell r="G101" t="str">
-            <v>4758</v>
+            <v>4757</v>
           </cell>
           <cell r="H101" t="str">
-            <v>4734</v>
+            <v>4733</v>
           </cell>
           <cell r="I101" t="str">
-            <v>4734</v>
+            <v>4733</v>
           </cell>
         </row>
       </sheetData>
@@ -631,25 +597,22 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-2.38**</v>
+            <v>-2.40</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.13***</v>
+            <v>0.13</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-54.2</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>16.5***</v>
+            <v>-53.7</v>
           </cell>
           <cell r="F5" t="str">
-            <v>1.02</v>
+            <v>0.98</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.0077</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.0025</v>
+            <v>0.0026</v>
           </cell>
         </row>
         <row r="6">
@@ -662,11 +625,8 @@
           <cell r="D6" t="str">
             <v>(42.6)</v>
           </cell>
-          <cell r="E6" t="str">
-            <v>(4.65)</v>
-          </cell>
           <cell r="F6" t="str">
-            <v>(2.88)</v>
+            <v>(2.89)</v>
           </cell>
           <cell r="G6" t="str">
             <v>(0.015)</v>
@@ -695,9 +655,6 @@
           <cell r="D83" t="str">
             <v/>
           </cell>
-          <cell r="E83" t="str">
-            <v/>
-          </cell>
           <cell r="F83" t="str">
             <v/>
           </cell>
@@ -708,7 +665,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88***</v>
+            <v>0.88</v>
           </cell>
         </row>
         <row r="84">
@@ -722,9 +679,6 @@
             <v/>
           </cell>
           <cell r="D84" t="str">
-            <v/>
-          </cell>
-          <cell r="E84" t="str">
             <v/>
           </cell>
           <cell r="F84" t="str">
@@ -752,28 +706,25 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>5921</v>
+            <v>5922</v>
           </cell>
           <cell r="C101" t="str">
-            <v>6036</v>
+            <v>6037</v>
           </cell>
           <cell r="D101" t="str">
-            <v>6036</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>3118</v>
+            <v>6037</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2638</v>
+            <v>2639</v>
           </cell>
           <cell r="G101" t="str">
-            <v>6036</v>
+            <v>6037</v>
           </cell>
           <cell r="H101" t="str">
-            <v>5996</v>
+            <v>5997</v>
           </cell>
           <cell r="I101" t="str">
-            <v>5996</v>
+            <v>5997</v>
           </cell>
         </row>
       </sheetData>
@@ -798,13 +749,10 @@
             <v>0.049</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-91.6*</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>7.84</v>
+            <v>-90.2</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-2.99</v>
+            <v>-3.00</v>
           </cell>
           <cell r="G5" t="str">
             <v>-0.021</v>
@@ -821,10 +769,7 @@
             <v>(0.042)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(53.3)</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>(4.78)</v>
+            <v>(53.4)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(3.14)</v>
@@ -856,9 +801,6 @@
           <cell r="D83" t="str">
             <v/>
           </cell>
-          <cell r="E83" t="str">
-            <v/>
-          </cell>
           <cell r="F83" t="str">
             <v/>
           </cell>
@@ -869,7 +811,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.89***</v>
+            <v>0.89</v>
           </cell>
         </row>
         <row r="84">
@@ -885,9 +827,6 @@
           <cell r="D84" t="str">
             <v/>
           </cell>
-          <cell r="E84" t="str">
-            <v/>
-          </cell>
           <cell r="F84" t="str">
             <v/>
           </cell>
@@ -903,7 +842,7 @@
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>-0.0081</v>
+            <v>-0.0080</v>
           </cell>
         </row>
         <row r="96">
@@ -920,9 +859,6 @@
           </cell>
           <cell r="D101" t="str">
             <v>5368</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>2786</v>
           </cell>
           <cell r="F101" t="str">
             <v>2334</v>
@@ -1240,37 +1176,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C08B4-F7E1-44E4-85EC-7044A9D4DD25}">
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="A2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8.88671875" style="1"/>
+    <col min="2" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
@@ -1278,18 +1213,15 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="str">
         <f>[1]mechanism_pro_2!A2</f>
         <v/>
@@ -1302,13 +1234,12 @@
         <f>[1]mechanism_pro_2!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="10" t="str">
         <f>[1]mechanism_pro_2!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="4" t="str">
-        <f>[1]mechanism_pro_2!E2</f>
-        <v>(4)</v>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>[1]mechanism_pro_2!F2</f>
@@ -1322,50 +1253,42 @@
         <f>[1]mechanism_pro_2!H2</f>
         <v>(7)</v>
       </c>
-      <c r="I4" s="4" t="str">
-        <f>[1]mechanism_pro_2!I2</f>
-        <v>(8)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]mechanism_pro_2!B5</f>
-        <v>-8.54***</v>
+        <v>-8.54</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism_pro_2!C5</f>
-        <v>0.19***</v>
+        <v>0.19</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism_pro_2!D5</f>
-        <v>37.7</v>
+        <v>34.0</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>[1]mechanism_pro_2!E5</f>
-        <v>15.5***</v>
+        <f>[1]mechanism_pro_2!F5</f>
+        <v>-8.52</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>[1]mechanism_pro_2!F5</f>
-        <v>-8.51***</v>
-      </c>
-      <c r="G6" s="1" t="str">
         <f>[1]mechanism_pro_2!G5</f>
         <v>-0.0068</v>
       </c>
+      <c r="G6" s="1" t="str">
+        <f>[1]mechanism_pro_2!H5</f>
+        <v>0.081</v>
+      </c>
       <c r="H6" s="1" t="str">
-        <f>[1]mechanism_pro_2!H5</f>
-        <v>0.081***</v>
-      </c>
-      <c r="I6" s="1" t="str">
         <f>[1]mechanism_pro_2!I77</f>
         <v>-0.017</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>[1]mechanism_pro_2!B6</f>
         <v>(1.03)</v>
@@ -1376,45 +1299,41 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism_pro_2!D6</f>
-        <v>(51.0)</v>
+        <v>(51.2)</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>[1]mechanism_pro_2!E6</f>
-        <v>(4.57)</v>
-      </c>
-      <c r="F7" s="1" t="str">
         <f>[1]mechanism_pro_2!F6</f>
         <v>(2.68)</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="F7" s="1" t="str">
         <f>[1]mechanism_pro_2!G6</f>
         <v>(0.018)</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="G7" s="1" t="str">
         <f>[1]mechanism_pro_2!H6</f>
         <v>(0.025)</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f>[1]mechanism_pro_2!I78</f>
         <v>(0.028)</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f>[1]mechanism_pro_2!I95</f>
         <v>-0.0042</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" s="1" t="str">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="str">
         <f>[1]mechanism_pro_2!I96</f>
         <v>(0.030)</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1431,27 +1350,23 @@
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f>[1]mechanism_pro_2!E83</f>
+        <f>[1]mechanism_pro_2!F83</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f>[1]mechanism_pro_2!F83</f>
+        <f>[1]mechanism_pro_2!G83</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f>[1]mechanism_pro_2!G83</f>
+        <f>[1]mechanism_pro_2!H83</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f>[1]mechanism_pro_2!H83</f>
-        <v/>
-      </c>
-      <c r="I10" s="1" t="str">
         <f>[1]mechanism_pro_2!I83</f>
-        <v>0.88***</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>[1]mechanism_pro_2!A84</f>
         <v/>
@@ -1469,27 +1384,23 @@
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f>[1]mechanism_pro_2!E84</f>
+        <f>[1]mechanism_pro_2!F84</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f>[1]mechanism_pro_2!F84</f>
+        <f>[1]mechanism_pro_2!G84</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f>[1]mechanism_pro_2!G84</f>
+        <f>[1]mechanism_pro_2!H84</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f>[1]mechanism_pro_2!H84</f>
-        <v/>
-      </c>
-      <c r="I11" s="1" t="str">
         <f>[1]mechanism_pro_2!I84</f>
         <v>(0.017)</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1506,51 +1417,46 @@
         <v>5085</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>[1]mechanism_pro_2!E101</f>
-        <v>2719</v>
-      </c>
-      <c r="F12" s="3" t="str">
         <f>[1]mechanism_pro_2!F101</f>
         <v>2490</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="F12" s="3" t="str">
         <f>[1]mechanism_pro_2!G101</f>
         <v>5085</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="G12" s="3" t="str">
         <f>[1]mechanism_pro_2!H101</f>
         <v>5062</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="H12" s="3" t="str">
         <f>[1]mechanism_pro_2!I101</f>
         <v>5062</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
@@ -1564,48 +1470,41 @@
       <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>[2]mechanism_pro_3!B5</f>
-        <v>-3.01***</v>
+        <v>-2.97</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[2]mechanism_pro_3!C5</f>
-        <v>0.17***</v>
+        <v>0.17</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[2]mechanism_pro_3!D5</f>
-        <v>-68.8</v>
+        <v>-72.6</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>[2]mechanism_pro_3!E5</f>
-        <v>20.1***</v>
+        <f>[2]mechanism_pro_3!F5</f>
+        <v>-1.45</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>[2]mechanism_pro_3!F5</f>
-        <v>-1.59</v>
-      </c>
-      <c r="G15" s="1" t="str">
         <f>[2]mechanism_pro_3!G5</f>
         <v>-0.021</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="G15" s="1" t="str">
         <f>[2]mechanism_pro_3!H5</f>
         <v>-0.0049</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="H15" s="1" t="str">
         <f>[2]mechanism_pro_3!I77</f>
         <v>-0.012</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <f>[2]mechanism_pro_3!B6</f>
         <v>(1.13)</v>
@@ -1616,45 +1515,41 @@
       </c>
       <c r="D16" s="1" t="str">
         <f>[2]mechanism_pro_3!D6</f>
-        <v>(46.6)</v>
+        <v>(46.5)</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>[2]mechanism_pro_3!E6</f>
-        <v>(5.51)</v>
+        <f>[2]mechanism_pro_3!F6</f>
+        <v>(3.21)</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>[2]mechanism_pro_3!F6</f>
-        <v>(3.22)</v>
-      </c>
-      <c r="G16" s="1" t="str">
         <f>[2]mechanism_pro_3!G6</f>
         <v>(0.020)</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="G16" s="1" t="str">
         <f>[2]mechanism_pro_3!H6</f>
         <v>(0.026)</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f>[2]mechanism_pro_3!I78</f>
         <v>(0.028)</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f>[2]mechanism_pro_3!I95</f>
-        <v>0.0063</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="1" t="str">
+        <v>0.0060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="str">
         <f>[2]mechanism_pro_3!I96</f>
         <v>(0.028)</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1671,27 +1566,23 @@
         <v/>
       </c>
       <c r="E19" s="1" t="str">
-        <f>[2]mechanism_pro_3!E83</f>
+        <f>[2]mechanism_pro_3!F83</f>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>[2]mechanism_pro_3!F83</f>
+        <f>[2]mechanism_pro_3!G83</f>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>[2]mechanism_pro_3!G83</f>
+        <f>[2]mechanism_pro_3!H83</f>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>[2]mechanism_pro_3!H83</f>
-        <v/>
-      </c>
-      <c r="I19" s="1" t="str">
         <f>[2]mechanism_pro_3!I83</f>
-        <v>0.88***</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>[2]mechanism_pro_3!A84</f>
         <v/>
@@ -1709,88 +1600,79 @@
         <v/>
       </c>
       <c r="E20" s="1" t="str">
-        <f>[2]mechanism_pro_3!E84</f>
+        <f>[2]mechanism_pro_3!F84</f>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>[2]mechanism_pro_3!F84</f>
+        <f>[2]mechanism_pro_3!G84</f>
         <v/>
       </c>
       <c r="G20" s="1" t="str">
-        <f>[2]mechanism_pro_3!G84</f>
+        <f>[2]mechanism_pro_3!H84</f>
         <v/>
       </c>
       <c r="H20" s="1" t="str">
-        <f>[2]mechanism_pro_3!H84</f>
-        <v/>
-      </c>
-      <c r="I20" s="1" t="str">
         <f>[2]mechanism_pro_3!I84</f>
         <v>(0.017)</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>[2]mechanism_pro_3!B101</f>
-        <v>4656</v>
+        <v>4655</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[2]mechanism_pro_3!C101</f>
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[2]mechanism_pro_3!D101</f>
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>[2]mechanism_pro_3!E101</f>
-        <v>2409</v>
+        <f>[2]mechanism_pro_3!F101</f>
+        <v>2073</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>[2]mechanism_pro_3!F101</f>
-        <v>2075</v>
+        <f>[2]mechanism_pro_3!G101</f>
+        <v>4757</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>[2]mechanism_pro_3!G101</f>
-        <v>4758</v>
+        <f>[2]mechanism_pro_3!H101</f>
+        <v>4733</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>[2]mechanism_pro_3!H101</f>
-        <v>4734</v>
-      </c>
-      <c r="I21" s="3" t="str">
         <f>[2]mechanism_pro_3!I101</f>
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>12</v>
@@ -1804,48 +1686,41 @@
       <c r="H23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>[3]mechanism_pro_4!B5</f>
-        <v>-2.38**</v>
+        <v>-2.40</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>[3]mechanism_pro_4!C5</f>
-        <v>0.13***</v>
+        <v>0.13</v>
       </c>
       <c r="D24" s="1" t="str">
         <f>[3]mechanism_pro_4!D5</f>
-        <v>-54.2</v>
+        <v>-53.7</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>[3]mechanism_pro_4!E5</f>
-        <v>16.5***</v>
+        <f>[3]mechanism_pro_4!F5</f>
+        <v>0.98</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>[3]mechanism_pro_4!F5</f>
-        <v>1.02</v>
-      </c>
-      <c r="G24" s="1" t="str">
         <f>[3]mechanism_pro_4!G5</f>
         <v>-0.0077</v>
       </c>
+      <c r="G24" s="1" t="str">
+        <f>[3]mechanism_pro_4!H5</f>
+        <v>0.0026</v>
+      </c>
       <c r="H24" s="1" t="str">
-        <f>[3]mechanism_pro_4!H5</f>
-        <v>0.0025</v>
-      </c>
-      <c r="I24" s="1" t="str">
         <f>[3]mechanism_pro_4!I77</f>
         <v>-0.013</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="str">
         <f>[3]mechanism_pro_4!B6</f>
         <v>(0.97)</v>
@@ -1859,42 +1734,38 @@
         <v>(42.6)</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>[3]mechanism_pro_4!E6</f>
-        <v>(4.65)</v>
+        <f>[3]mechanism_pro_4!F6</f>
+        <v>(2.89)</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>[3]mechanism_pro_4!F6</f>
-        <v>(2.88)</v>
-      </c>
-      <c r="G25" s="1" t="str">
         <f>[3]mechanism_pro_4!G6</f>
         <v>(0.015)</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f>[3]mechanism_pro_4!H6</f>
         <v>(0.020)</v>
       </c>
-      <c r="I25" s="1" t="str">
+      <c r="H25" s="1" t="str">
         <f>[3]mechanism_pro_4!I78</f>
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="str">
         <f>[3]mechanism_pro_4!I95</f>
         <v>0.013</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="1" t="str">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="str">
         <f>[3]mechanism_pro_4!I96</f>
         <v>(0.020)</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1911,27 +1782,23 @@
         <v/>
       </c>
       <c r="E28" s="1" t="str">
-        <f>[3]mechanism_pro_4!E83</f>
+        <f>[3]mechanism_pro_4!F83</f>
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>[3]mechanism_pro_4!F83</f>
+        <f>[3]mechanism_pro_4!G83</f>
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>[3]mechanism_pro_4!G83</f>
+        <f>[3]mechanism_pro_4!H83</f>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f>[3]mechanism_pro_4!H83</f>
-        <v/>
-      </c>
-      <c r="I28" s="1" t="str">
         <f>[3]mechanism_pro_4!I83</f>
-        <v>0.88***</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>[3]mechanism_pro_4!A84</f>
         <v/>
@@ -1949,88 +1816,79 @@
         <v/>
       </c>
       <c r="E29" s="1" t="str">
-        <f>[3]mechanism_pro_4!E84</f>
+        <f>[3]mechanism_pro_4!F84</f>
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>[3]mechanism_pro_4!F84</f>
+        <f>[3]mechanism_pro_4!G84</f>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>[3]mechanism_pro_4!G84</f>
+        <f>[3]mechanism_pro_4!H84</f>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f>[3]mechanism_pro_4!H84</f>
-        <v/>
-      </c>
-      <c r="I29" s="1" t="str">
         <f>[3]mechanism_pro_4!I84</f>
         <v>(0.017)</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="3" t="str">
         <f>[3]mechanism_pro_4!B101</f>
-        <v>5921</v>
+        <v>5922</v>
       </c>
       <c r="C30" s="3" t="str">
         <f>[3]mechanism_pro_4!C101</f>
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="D30" s="3" t="str">
         <f>[3]mechanism_pro_4!D101</f>
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>[3]mechanism_pro_4!E101</f>
-        <v>3118</v>
+        <f>[3]mechanism_pro_4!F101</f>
+        <v>2639</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>[3]mechanism_pro_4!F101</f>
-        <v>2638</v>
+        <f>[3]mechanism_pro_4!G101</f>
+        <v>6037</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f>[3]mechanism_pro_4!G101</f>
-        <v>6036</v>
+        <f>[3]mechanism_pro_4!H101</f>
+        <v>5997</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f>[3]mechanism_pro_4!H101</f>
-        <v>5996</v>
-      </c>
-      <c r="I30" s="3" t="str">
         <f>[3]mechanism_pro_4!I101</f>
-        <v>5996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>12</v>
@@ -2044,13 +1902,10 @@
       <c r="H32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>[4]mechanism_pro_5!B5</f>
@@ -2062,30 +1917,26 @@
       </c>
       <c r="D33" s="1" t="str">
         <f>[4]mechanism_pro_5!D5</f>
-        <v>-91.6*</v>
+        <v>-90.2</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>[4]mechanism_pro_5!E5</f>
-        <v>7.84</v>
+        <f>[4]mechanism_pro_5!F5</f>
+        <v>-3.00</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>[4]mechanism_pro_5!F5</f>
-        <v>-2.99</v>
-      </c>
-      <c r="G33" s="1" t="str">
         <f>[4]mechanism_pro_5!G5</f>
         <v>-0.021</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f>[4]mechanism_pro_5!H5</f>
         <v>-0.015</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f>[4]mechanism_pro_5!I77</f>
         <v>-0.0049</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="str">
         <f>[4]mechanism_pro_5!B6</f>
         <v>(0.94)</v>
@@ -2096,45 +1947,41 @@
       </c>
       <c r="D34" s="1" t="str">
         <f>[4]mechanism_pro_5!D6</f>
-        <v>(53.3)</v>
+        <v>(53.4)</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>[4]mechanism_pro_5!E6</f>
-        <v>(4.78)</v>
-      </c>
-      <c r="F34" s="1" t="str">
         <f>[4]mechanism_pro_5!F6</f>
         <v>(3.14)</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="F34" s="1" t="str">
         <f>[4]mechanism_pro_5!G6</f>
         <v>(0.017)</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f>[4]mechanism_pro_5!H6</f>
         <v>(0.023)</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f>[4]mechanism_pro_5!I78</f>
         <v>(0.025)</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="str">
         <f>[4]mechanism_pro_5!I95</f>
-        <v>-0.0081</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="1" t="str">
+        <v>-0.0080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="str">
         <f>[4]mechanism_pro_5!I96</f>
         <v>(0.026)</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2151,27 +1998,23 @@
         <v/>
       </c>
       <c r="E37" s="1" t="str">
-        <f>[4]mechanism_pro_5!E83</f>
+        <f>[4]mechanism_pro_5!F83</f>
         <v/>
       </c>
       <c r="F37" s="1" t="str">
-        <f>[4]mechanism_pro_5!F83</f>
+        <f>[4]mechanism_pro_5!G83</f>
         <v/>
       </c>
       <c r="G37" s="1" t="str">
-        <f>[4]mechanism_pro_5!G83</f>
+        <f>[4]mechanism_pro_5!H83</f>
         <v/>
       </c>
       <c r="H37" s="1" t="str">
-        <f>[4]mechanism_pro_5!H83</f>
-        <v/>
-      </c>
-      <c r="I37" s="1" t="str">
         <f>[4]mechanism_pro_5!I83</f>
-        <v>0.89***</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>[4]mechanism_pro_5!A84</f>
         <v/>
@@ -2189,27 +2032,23 @@
         <v/>
       </c>
       <c r="E38" s="1" t="str">
-        <f>[4]mechanism_pro_5!E84</f>
+        <f>[4]mechanism_pro_5!F84</f>
         <v/>
       </c>
       <c r="F38" s="1" t="str">
-        <f>[4]mechanism_pro_5!F84</f>
+        <f>[4]mechanism_pro_5!G84</f>
         <v/>
       </c>
       <c r="G38" s="1" t="str">
-        <f>[4]mechanism_pro_5!G84</f>
+        <f>[4]mechanism_pro_5!H84</f>
         <v/>
       </c>
       <c r="H38" s="1" t="str">
-        <f>[4]mechanism_pro_5!H84</f>
-        <v/>
-      </c>
-      <c r="I38" s="1" t="str">
         <f>[4]mechanism_pro_5!I84</f>
         <v>(0.017)</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2226,27 +2065,23 @@
         <v>5368</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f>[4]mechanism_pro_5!E101</f>
-        <v>2786</v>
-      </c>
-      <c r="F39" s="3" t="str">
         <f>[4]mechanism_pro_5!F101</f>
         <v>2334</v>
       </c>
-      <c r="G39" s="3" t="str">
+      <c r="F39" s="3" t="str">
         <f>[4]mechanism_pro_5!G101</f>
         <v>5368</v>
       </c>
-      <c r="H39" s="3" t="str">
+      <c r="G39" s="3" t="str">
         <f>[4]mechanism_pro_5!H101</f>
         <v>5346</v>
       </c>
-      <c r="I39" s="3" t="str">
+      <c r="H39" s="3" t="str">
         <f>[4]mechanism_pro_5!I101</f>
         <v>5346</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="str">
         <f>[1]mechanism_pro_2!A103</f>
         <v>Control Mean</v>
@@ -2261,37 +2096,33 @@
       </c>
       <c r="D40" s="8" t="str">
         <f>[1]mechanism_pro_2!D103</f>
-        <v>829.7</v>
+        <v>830.5</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f>[1]mechanism_pro_2!E103</f>
-        <v>81.7</v>
-      </c>
-      <c r="F40" s="8" t="str">
         <f>[1]mechanism_pro_2!F103</f>
         <v>92.7</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="F40" s="8" t="str">
         <f>[1]mechanism_pro_2!G103</f>
         <v>0.75</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="G40" s="8" t="str">
         <f>[1]mechanism_pro_2!H103</f>
         <v>0.73</v>
       </c>
-      <c r="I40" s="8" t="str">
+      <c r="H40" s="8" t="str">
         <f>[1]mechanism_pro_2!I103</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C34203-37F8-4C29-B7A7-8BF04BE01DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD87E4-8A1D-48F9-B409-56DC6E386BD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{97C891ED-ED1B-44F0-A8FF-ED720B6E75ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{97C891ED-ED1B-44F0-A8FF-ED720B6E75ED}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -285,16 +285,16 @@
             <v>0.19</v>
           </cell>
           <cell r="D5" t="str">
-            <v>34.0</v>
+            <v>41.3</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-8.52</v>
+            <v>-8.44</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.0068</v>
+            <v>-0.011</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.081</v>
+            <v>0.079</v>
           </cell>
         </row>
         <row r="6">
@@ -302,10 +302,10 @@
             <v>(1.03)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.044)</v>
+            <v>(0.043)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(51.2)</v>
+            <v>(52.4)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(2.68)</v>
@@ -314,17 +314,17 @@
             <v>(0.018)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.025)</v>
+            <v>(0.023)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77" t="str">
-            <v>-0.017</v>
+            <v>-0.054</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78" t="str">
-            <v>(0.028)</v>
+            <v>(0.014)</v>
           </cell>
         </row>
         <row r="83">
@@ -347,7 +347,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88</v>
+            <v>1.05</v>
           </cell>
         </row>
         <row r="84">
@@ -373,17 +373,17 @@
             <v/>
           </cell>
           <cell r="I84" t="str">
-            <v>(0.017)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>-0.0042</v>
+            <v>0.021</v>
           </cell>
         </row>
         <row r="96">
           <cell r="I96" t="str">
-            <v>(0.030)</v>
+            <v>(0.016)</v>
           </cell>
         </row>
         <row r="101">
@@ -397,16 +397,16 @@
             <v>5085</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2490</v>
+            <v>2485</v>
           </cell>
           <cell r="G101" t="str">
             <v>5085</v>
           </cell>
           <cell r="H101" t="str">
-            <v>5062</v>
+            <v>5050</v>
           </cell>
           <cell r="I101" t="str">
-            <v>5062</v>
+            <v>5050</v>
           </cell>
         </row>
         <row r="103">
@@ -417,22 +417,22 @@
             <v>90.0</v>
           </cell>
           <cell r="C103" t="str">
-            <v>1.18</v>
+            <v>1.06</v>
           </cell>
           <cell r="D103" t="str">
-            <v>830.5</v>
+            <v>764.5</v>
           </cell>
           <cell r="F103" t="str">
-            <v>92.7</v>
+            <v>92.6</v>
           </cell>
           <cell r="G103" t="str">
-            <v>0.75</v>
+            <v>0.69</v>
           </cell>
           <cell r="H103" t="str">
-            <v>0.73</v>
+            <v>0.64</v>
           </cell>
           <cell r="I103" t="str">
-            <v>0.73</v>
+            <v>0.64</v>
           </cell>
         </row>
       </sheetData>
@@ -451,22 +451,22 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-2.97</v>
+            <v>-3.01</v>
           </cell>
           <cell r="C5" t="str">
             <v>0.17</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-72.6</v>
+            <v>-55.1</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-1.45</v>
+            <v>-1.43</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.021</v>
+            <v>-0.020</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.0049</v>
+            <v>-0.0032</v>
           </cell>
         </row>
         <row r="6">
@@ -474,29 +474,29 @@
             <v>(1.13)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.051)</v>
+            <v>(0.048)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(46.5)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(3.21)</v>
+            <v>(3.22)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.020)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.026)</v>
+            <v>(0.023)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77" t="str">
-            <v>-0.012</v>
+            <v>-0.0066</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78" t="str">
-            <v>(0.028)</v>
+            <v>(0.014)</v>
           </cell>
         </row>
         <row r="83">
@@ -519,7 +519,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88</v>
+            <v>1.05</v>
           </cell>
         </row>
         <row r="84">
@@ -545,40 +545,40 @@
             <v/>
           </cell>
           <cell r="I84" t="str">
-            <v>(0.017)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>0.0060</v>
+            <v>-0.0071</v>
           </cell>
         </row>
         <row r="96">
           <cell r="I96" t="str">
-            <v>(0.028)</v>
+            <v>(0.018)</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>4655</v>
+            <v>4656</v>
           </cell>
           <cell r="C101" t="str">
-            <v>4757</v>
+            <v>4758</v>
           </cell>
           <cell r="D101" t="str">
-            <v>4757</v>
+            <v>4758</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2073</v>
+            <v>2070</v>
           </cell>
           <cell r="G101" t="str">
-            <v>4757</v>
+            <v>4758</v>
           </cell>
           <cell r="H101" t="str">
-            <v>4733</v>
+            <v>4728</v>
           </cell>
           <cell r="I101" t="str">
-            <v>4733</v>
+            <v>4728</v>
           </cell>
         </row>
       </sheetData>
@@ -603,16 +603,16 @@
             <v>0.13</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-53.7</v>
+            <v>-50.4</v>
           </cell>
           <cell r="F5" t="str">
-            <v>0.98</v>
+            <v>0.94</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.0077</v>
+            <v>-0.0051</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.0026</v>
+            <v>0.0082</v>
           </cell>
         </row>
         <row r="6">
@@ -620,29 +620,29 @@
             <v>(0.97)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.048)</v>
+            <v>(0.049)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(42.6)</v>
+            <v>(43.3)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(2.89)</v>
+            <v>(2.88)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.015)</v>
+            <v>(0.017)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.020)</v>
+            <v>(0.021)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77" t="str">
-            <v>-0.013</v>
+            <v>0.00067</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78" t="str">
-            <v>(0.019)</v>
+            <v>(0.012)</v>
           </cell>
         </row>
         <row r="83">
@@ -665,7 +665,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.88</v>
+            <v>1.05</v>
           </cell>
         </row>
         <row r="84">
@@ -691,17 +691,17 @@
             <v/>
           </cell>
           <cell r="I84" t="str">
-            <v>(0.017)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>0.013</v>
+            <v>-0.011</v>
           </cell>
         </row>
         <row r="96">
           <cell r="I96" t="str">
-            <v>(0.020)</v>
+            <v>(0.014)</v>
           </cell>
         </row>
         <row r="101">
@@ -715,16 +715,16 @@
             <v>6037</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2639</v>
+            <v>2633</v>
           </cell>
           <cell r="G101" t="str">
             <v>6037</v>
           </cell>
           <cell r="H101" t="str">
-            <v>5997</v>
+            <v>5992</v>
           </cell>
           <cell r="I101" t="str">
-            <v>5997</v>
+            <v>5992</v>
           </cell>
         </row>
       </sheetData>
@@ -743,22 +743,22 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5" t="str">
-            <v>-1.06</v>
+            <v>-1.09</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.049</v>
+            <v>0.037</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-90.2</v>
+            <v>-84.6</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-3.00</v>
+            <v>-3.10</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.021</v>
+            <v>-0.020</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-0.015</v>
+            <v>-0.016</v>
           </cell>
         </row>
         <row r="6">
@@ -766,29 +766,29 @@
             <v>(0.94)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.042)</v>
+            <v>(0.041)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(53.4)</v>
+            <v>(53.6)</v>
           </cell>
           <cell r="F6" t="str">
             <v>(3.14)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.017)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.023)</v>
+            <v>(0.022)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77" t="str">
-            <v>-0.0049</v>
+            <v>-0.0094</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78" t="str">
-            <v>(0.025)</v>
+            <v>(0.012)</v>
           </cell>
         </row>
         <row r="83">
@@ -811,7 +811,7 @@
             <v/>
           </cell>
           <cell r="I83" t="str">
-            <v>0.89</v>
+            <v>1.05</v>
           </cell>
         </row>
         <row r="84">
@@ -837,40 +837,40 @@
             <v/>
           </cell>
           <cell r="I84" t="str">
-            <v>(0.017)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="95">
           <cell r="I95" t="str">
-            <v>-0.0080</v>
+            <v>-0.0011</v>
           </cell>
         </row>
         <row r="96">
           <cell r="I96" t="str">
-            <v>(0.026)</v>
+            <v>(0.015)</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>5253</v>
+            <v>5254</v>
           </cell>
           <cell r="C101" t="str">
-            <v>5368</v>
+            <v>5369</v>
           </cell>
           <cell r="D101" t="str">
-            <v>5368</v>
+            <v>5369</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2334</v>
+            <v>2330</v>
           </cell>
           <cell r="G101" t="str">
-            <v>5368</v>
+            <v>5369</v>
           </cell>
           <cell r="H101" t="str">
-            <v>5346</v>
+            <v>5340</v>
           </cell>
           <cell r="I101" t="str">
-            <v>5346</v>
+            <v>5340</v>
           </cell>
         </row>
       </sheetData>
@@ -1182,13 +1182,13 @@
       <selection activeCell="H40" sqref="A2:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="str">
         <f>[1]mechanism_pro_2!A2</f>
         <v/>
@@ -1254,8 +1254,8 @@
         <v>(7)</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1269,37 +1269,37 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism_pro_2!D5</f>
-        <v>34.0</v>
+        <v>41.3</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]mechanism_pro_2!F5</f>
-        <v>-8.52</v>
+        <v>-8.44</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]mechanism_pro_2!G5</f>
-        <v>-0.0068</v>
+        <v>-0.011</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]mechanism_pro_2!H5</f>
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]mechanism_pro_2!I77</f>
-        <v>-0.017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="str">
         <f>[1]mechanism_pro_2!B6</f>
         <v>(1.03)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism_pro_2!C6</f>
-        <v>(0.044)</v>
+        <v>(0.043)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism_pro_2!D6</f>
-        <v>(51.2)</v>
+        <v>(52.4)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]mechanism_pro_2!F6</f>
@@ -1311,29 +1311,29 @@
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]mechanism_pro_2!H6</f>
-        <v>(0.025)</v>
+        <v>(0.023)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]mechanism_pro_2!I78</f>
-        <v>(0.028)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.014)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]mechanism_pro_2!I95</f>
-        <v>-0.0042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H9" s="1" t="str">
         <f>[1]mechanism_pro_2!I96</f>
-        <v>(0.030)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1363,10 +1363,10 @@
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]mechanism_pro_2!I83</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]mechanism_pro_2!A84</f>
         <v/>
@@ -1397,10 +1397,10 @@
       </c>
       <c r="H11" s="1" t="str">
         <f>[1]mechanism_pro_2!I84</f>
-        <v>(0.017)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]mechanism_pro_2!F101</f>
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]mechanism_pro_2!G101</f>
@@ -1426,14 +1426,14 @@
       </c>
       <c r="G12" s="3" t="str">
         <f>[1]mechanism_pro_2!H101</f>
-        <v>5062</v>
+        <v>5050</v>
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]mechanism_pro_2!I101</f>
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1471,13 +1471,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>[2]mechanism_pro_3!B5</f>
-        <v>-2.97</v>
+        <v>-3.01</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[2]mechanism_pro_3!C5</f>
@@ -1485,33 +1485,33 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>[2]mechanism_pro_3!D5</f>
-        <v>-72.6</v>
+        <v>-55.1</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[2]mechanism_pro_3!F5</f>
-        <v>-1.45</v>
+        <v>-1.43</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[2]mechanism_pro_3!G5</f>
-        <v>-0.021</v>
+        <v>-0.020</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[2]mechanism_pro_3!H5</f>
-        <v>-0.0049</v>
+        <v>-0.0032</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>[2]mechanism_pro_3!I77</f>
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.0066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="str">
         <f>[2]mechanism_pro_3!B6</f>
         <v>(1.13)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[2]mechanism_pro_3!C6</f>
-        <v>(0.051)</v>
+        <v>(0.048)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[2]mechanism_pro_3!D6</f>
@@ -1519,37 +1519,37 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>[2]mechanism_pro_3!F6</f>
-        <v>(3.21)</v>
+        <v>(3.22)</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[2]mechanism_pro_3!G6</f>
-        <v>(0.020)</v>
+        <v>(0.019)</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>[2]mechanism_pro_3!H6</f>
-        <v>(0.026)</v>
+        <v>(0.023)</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>[2]mechanism_pro_3!I78</f>
-        <v>(0.028)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.014)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>[2]mechanism_pro_3!I95</f>
-        <v>0.0060</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.0071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H18" s="1" t="str">
         <f>[2]mechanism_pro_3!I96</f>
-        <v>(0.028)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.018)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1579,10 +1579,10 @@
       </c>
       <c r="H19" s="1" t="str">
         <f>[2]mechanism_pro_3!I83</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[2]mechanism_pro_3!A84</f>
         <v/>
@@ -1613,43 +1613,43 @@
       </c>
       <c r="H20" s="1" t="str">
         <f>[2]mechanism_pro_3!I84</f>
-        <v>(0.017)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>[2]mechanism_pro_3!B101</f>
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[2]mechanism_pro_3!C101</f>
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>[2]mechanism_pro_3!D101</f>
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[2]mechanism_pro_3!F101</f>
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[2]mechanism_pro_3!G101</f>
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>[2]mechanism_pro_3!H101</f>
-        <v>4733</v>
+        <v>4728</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>[2]mechanism_pro_3!I101</f>
-        <v>4733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1701,71 +1701,71 @@
       </c>
       <c r="D24" s="1" t="str">
         <f>[3]mechanism_pro_4!D5</f>
-        <v>-53.7</v>
+        <v>-50.4</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>[3]mechanism_pro_4!F5</f>
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>[3]mechanism_pro_4!G5</f>
-        <v>-0.0077</v>
+        <v>-0.0051</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>[3]mechanism_pro_4!H5</f>
-        <v>0.0026</v>
+        <v>0.0082</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>[3]mechanism_pro_4!I77</f>
-        <v>-0.013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.00067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="str">
         <f>[3]mechanism_pro_4!B6</f>
         <v>(0.97)</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>[3]mechanism_pro_4!C6</f>
-        <v>(0.048)</v>
+        <v>(0.049)</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>[3]mechanism_pro_4!D6</f>
-        <v>(42.6)</v>
+        <v>(43.3)</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>[3]mechanism_pro_4!F6</f>
-        <v>(2.89)</v>
+        <v>(2.88)</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>[3]mechanism_pro_4!G6</f>
-        <v>(0.015)</v>
+        <v>(0.017)</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>[3]mechanism_pro_4!H6</f>
-        <v>(0.020)</v>
+        <v>(0.021)</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>[3]mechanism_pro_4!I78</f>
-        <v>(0.019)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>[3]mechanism_pro_4!I95</f>
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H27" s="1" t="str">
         <f>[3]mechanism_pro_4!I96</f>
-        <v>(0.020)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.014)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1795,10 +1795,10 @@
       </c>
       <c r="H28" s="1" t="str">
         <f>[3]mechanism_pro_4!I83</f>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>[3]mechanism_pro_4!A84</f>
         <v/>
@@ -1829,10 +1829,10 @@
       </c>
       <c r="H29" s="1" t="str">
         <f>[3]mechanism_pro_4!I84</f>
-        <v>(0.017)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E30" s="3" t="str">
         <f>[3]mechanism_pro_4!F101</f>
-        <v>2639</v>
+        <v>2633</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>[3]mechanism_pro_4!G101</f>
@@ -1858,14 +1858,14 @@
       </c>
       <c r="G30" s="3" t="str">
         <f>[3]mechanism_pro_4!H101</f>
-        <v>5997</v>
+        <v>5992</v>
       </c>
       <c r="H30" s="3" t="str">
         <f>[3]mechanism_pro_4!I101</f>
-        <v>5997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>18</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -1903,51 +1903,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>[4]mechanism_pro_5!B5</f>
-        <v>-1.06</v>
+        <v>-1.09</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>[4]mechanism_pro_5!C5</f>
-        <v>0.049</v>
+        <v>0.037</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>[4]mechanism_pro_5!D5</f>
-        <v>-90.2</v>
+        <v>-84.6</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>[4]mechanism_pro_5!F5</f>
-        <v>-3.00</v>
+        <v>-3.10</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>[4]mechanism_pro_5!G5</f>
-        <v>-0.021</v>
+        <v>-0.020</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>[4]mechanism_pro_5!H5</f>
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>[4]mechanism_pro_5!I77</f>
-        <v>-0.0049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.0094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="str">
         <f>[4]mechanism_pro_5!B6</f>
         <v>(0.94)</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>[4]mechanism_pro_5!C6</f>
-        <v>(0.042)</v>
+        <v>(0.041)</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>[4]mechanism_pro_5!D6</f>
-        <v>(53.4)</v>
+        <v>(53.6)</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>[4]mechanism_pro_5!F6</f>
@@ -1955,33 +1955,33 @@
       </c>
       <c r="F34" s="1" t="str">
         <f>[4]mechanism_pro_5!G6</f>
-        <v>(0.017)</v>
+        <v>(0.019)</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>[4]mechanism_pro_5!H6</f>
-        <v>(0.023)</v>
+        <v>(0.022)</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>[4]mechanism_pro_5!I78</f>
-        <v>(0.025)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="1" t="str">
         <f>[4]mechanism_pro_5!I95</f>
-        <v>-0.0080</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.0011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H36" s="1" t="str">
         <f>[4]mechanism_pro_5!I96</f>
-        <v>(0.026)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>(0.015)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2011,10 +2011,10 @@
       </c>
       <c r="H37" s="1" t="str">
         <f>[4]mechanism_pro_5!I83</f>
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>[4]mechanism_pro_5!A84</f>
         <v/>
@@ -2045,43 +2045,43 @@
       </c>
       <c r="H38" s="1" t="str">
         <f>[4]mechanism_pro_5!I84</f>
-        <v>(0.017)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="3" t="str">
         <f>[4]mechanism_pro_5!B101</f>
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>[4]mechanism_pro_5!C101</f>
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="D39" s="3" t="str">
         <f>[4]mechanism_pro_5!D101</f>
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="E39" s="3" t="str">
         <f>[4]mechanism_pro_5!F101</f>
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="F39" s="3" t="str">
         <f>[4]mechanism_pro_5!G101</f>
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>[4]mechanism_pro_5!H101</f>
-        <v>5346</v>
+        <v>5340</v>
       </c>
       <c r="H39" s="3" t="str">
         <f>[4]mechanism_pro_5!I101</f>
-        <v>5346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="str">
         <f>[1]mechanism_pro_2!A103</f>
         <v>Control Mean</v>
@@ -2092,30 +2092,30 @@
       </c>
       <c r="C40" s="8" t="str">
         <f>[1]mechanism_pro_2!C103</f>
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="D40" s="8" t="str">
         <f>[1]mechanism_pro_2!D103</f>
-        <v>830.5</v>
+        <v>764.5</v>
       </c>
       <c r="E40" s="8" t="str">
         <f>[1]mechanism_pro_2!F103</f>
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>[1]mechanism_pro_2!G103</f>
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="G40" s="8" t="str">
         <f>[1]mechanism_pro_2!H103</f>
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="H40" s="8" t="str">
         <f>[1]mechanism_pro_2!I103</f>
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:H2"/>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104A4458-3C37-4294-93FE-9AE04C223807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1DC3E7-4A0E-4BA9-A9CC-C7C41E027BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23745" yWindow="-7695" windowWidth="19320" windowHeight="11175" xr2:uid="{8C42C236-BE8C-478F-931C-82628A00709E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -38,42 +38,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>Choice commitment</t>
+  </si>
+  <si>
+    <t>Forced commitment</t>
+  </si>
+  <si>
+    <t># of visit</t>
+  </si>
+  <si>
+    <t>Total days</t>
+  </si>
+  <si>
+    <t>Selling pawn</t>
+  </si>
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>R-squared</t>
-  </si>
-  <si>
-    <t>Forced commitment</t>
-  </si>
-  <si>
-    <t>Choice commitment</t>
-  </si>
-  <si>
-    <t>Days to 1st payment</t>
-  </si>
-  <si>
-    <t># of payments</t>
-  </si>
-  <si>
-    <t>Size of payments</t>
-  </si>
-  <si>
-    <t>Days to recovery</t>
-  </si>
-  <si>
-    <t>Total days</t>
-  </si>
-  <si>
-    <t>+ payment</t>
-  </si>
-  <si>
-    <t>% of payment</t>
-  </si>
-  <si>
-    <t>Selling pawn</t>
+    <t/>
+  </si>
+  <si>
+    <t>Control Mean</t>
+  </si>
+  <si>
+    <t># of visits $|$ recovery</t>
+  </si>
+  <si>
+    <t>Days to recovery $|$ recovery</t>
+  </si>
+  <si>
+    <t>Days to 1st payment (1p)</t>
+  </si>
+  <si>
+    <t>% of (1p)</t>
+  </si>
+  <si>
+    <t>Recovery in (1p)</t>
+  </si>
+  <si>
+    <t>+ Pay &amp; def</t>
+  </si>
+  <si>
+    <t>% of pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of pay $|$ def </t>
+  </si>
+  <si>
+    <t>Selling pawn $|$ def</t>
+  </si>
+  <si>
+    <t>Mean % size of pay</t>
   </si>
 </sst>
 </file>
@@ -97,12 +118,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -126,10 +156,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -137,8 +165,21 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -147,19 +188,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +209,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,31 +273,61 @@
           <cell r="I2" t="str">
             <v>(8)</v>
           </cell>
+          <cell r="J2" t="str">
+            <v>(9)</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>(10)</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>(11)</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>(12)</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>(13)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-8.58***</v>
+            <v>-8.59***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.19***</v>
+            <v>0.043*</v>
           </cell>
           <cell r="D5" t="str">
-            <v>47.2</v>
+            <v>0.046**</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-8.43***</v>
+            <v>0.042</v>
           </cell>
           <cell r="F5" t="str">
+            <v>0.17***</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>0.042*</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>-8.44***</v>
+          </cell>
+          <cell r="I5" t="str">
             <v>-13.0***</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>-0.013</v>
-          </cell>
-          <cell r="H5" t="str">
+          <cell r="J5" t="str">
             <v>0.091***</v>
           </cell>
-          <cell r="I5" t="str">
+          <cell r="K5" t="str">
+            <v>-0.045***</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>-0.13***</v>
+          </cell>
+          <cell r="M5" t="str">
             <v>0.013</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>0.15***</v>
           </cell>
         </row>
         <row r="6">
@@ -259,51 +338,81 @@
             <v>(1.06)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.045)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(54.3)</v>
+            <v>(0.023)</v>
           </cell>
           <cell r="E6" t="str">
+            <v>(0.034)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(0.042)</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>(0.024)</v>
+          </cell>
+          <cell r="H6" t="str">
             <v>(2.74)</v>
           </cell>
-          <cell r="F6" t="str">
+          <cell r="I6" t="str">
             <v>(2.41)</v>
           </cell>
-          <cell r="G6" t="str">
+          <cell r="J6" t="str">
+            <v>(0.024)</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>(0.020)</v>
+          </cell>
+          <cell r="M6" t="str">
             <v>(0.019)</v>
           </cell>
-          <cell r="H6" t="str">
-            <v>(0.024)</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>(0.019)</v>
+          <cell r="N6" t="str">
+            <v>(0.031)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-2.01**</v>
+            <v>-1.99**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>0.12**</v>
+            <v>-0.018</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-54.3</v>
+            <v>-0.019</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.00089</v>
+            <v>0.061*</v>
           </cell>
           <cell r="F8" t="str">
-            <v>1.30</v>
+            <v>0.13***</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.0032</v>
+            <v>-0.018</v>
           </cell>
           <cell r="H8" t="str">
+            <v>0.024</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>1.31</v>
+          </cell>
+          <cell r="J8" t="str">
             <v>0.0065</v>
           </cell>
-          <cell r="I8" t="str">
+          <cell r="K8" t="str">
+            <v>0.0089</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>-0.0053</v>
+          </cell>
+          <cell r="M8" t="str">
             <v>0.0032</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>0.011</v>
           </cell>
         </row>
         <row r="9">
@@ -314,51 +423,81 @@
             <v>(0.98)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.048)</v>
+            <v>(0.020)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(45.7)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(2.88)</v>
+            <v>(0.035)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(2.42)</v>
+            <v>(0.046)</v>
           </cell>
           <cell r="G9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>(2.89)</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>(2.43)</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>(0.021)</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>(0.018)</v>
+          </cell>
+          <cell r="M9" t="str">
             <v>(0.017)</v>
           </cell>
-          <cell r="H9" t="str">
-            <v>(0.020)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(0.017)</v>
+          <cell r="N9" t="str">
+            <v>(0.026)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>8382</v>
+            <v>8380</v>
           </cell>
           <cell r="C11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="D11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="E11" t="str">
-            <v>3970</v>
+            <v>8519</v>
           </cell>
           <cell r="F11" t="str">
-            <v>8521</v>
+            <v>3968</v>
           </cell>
           <cell r="G11" t="str">
-            <v>8521</v>
+            <v>8519</v>
           </cell>
           <cell r="H11" t="str">
-            <v>8521</v>
+            <v>3968</v>
           </cell>
           <cell r="I11" t="str">
-            <v>8521</v>
+            <v>8519</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>8519</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>4551</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>8519</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>8519</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>4551</v>
           </cell>
         </row>
         <row r="12">
@@ -366,25 +505,40 @@
             <v>0.025</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.015</v>
+            <v>0.017</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.010</v>
+            <v>0.021</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.039</v>
+            <v>0.018</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.032</v>
+            <v>0.027</v>
           </cell>
           <cell r="G12" t="str">
             <v>0.017</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.016</v>
+            <v>0.039</v>
           </cell>
           <cell r="I12" t="str">
+            <v>0.032</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>0.015</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>0.046</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>0.042</v>
+          </cell>
+          <cell r="M12" t="str">
             <v>0.017</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>0.062</v>
           </cell>
         </row>
         <row r="13">
@@ -395,25 +549,40 @@
             <v>90.0</v>
           </cell>
           <cell r="C13" t="str">
-            <v>1.06</v>
+            <v>0.48</v>
           </cell>
           <cell r="D13" t="str">
-            <v>760.5</v>
+            <v>0.34</v>
           </cell>
           <cell r="E13" t="str">
+            <v>0.99</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>1.30</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>0.52</v>
+          </cell>
+          <cell r="H13" t="str">
             <v>92.5</v>
           </cell>
-          <cell r="F13" t="str">
+          <cell r="I13" t="str">
             <v>117.7</v>
           </cell>
-          <cell r="G13" t="str">
-            <v>0.69</v>
-          </cell>
-          <cell r="H13" t="str">
+          <cell r="J13" t="str">
             <v>0.64</v>
           </cell>
-          <cell r="I13" t="str">
+          <cell r="K13" t="str">
+            <v>0.18</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>0.25</v>
+          </cell>
+          <cell r="M13" t="str">
             <v>0.31</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>0.55</v>
           </cell>
         </row>
       </sheetData>
@@ -718,364 +887,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E1F4B8-8DE1-404F-B632-59FC1A0D6119}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B463C252-3CBC-4DB9-9E7A-4F7C1165B369}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I11"/>
+      <selection activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="str">
+    </row>
+    <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="str">
         <f>[1]mechanism!A2</f>
         <v/>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="13" t="str">
         <f>[1]mechanism!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="13" t="str">
         <f>[1]mechanism!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="13" t="str">
         <f>[1]mechanism!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="13" t="str">
         <f>[1]mechanism!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" s="13" t="str">
         <f>[1]mechanism!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="G3" s="13" t="str">
         <f>[1]mechanism!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="13" t="str">
         <f>[1]mechanism!H2</f>
         <v>(7)</v>
       </c>
-      <c r="I3" s="8" t="str">
-        <f>[1]mechanism!I2</f>
-        <v>(8)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="1" t="str">
         <f>[1]mechanism!B5</f>
-        <v>-8.58***</v>
-      </c>
-      <c r="C4" s="3" t="str">
+        <v>-8.59***</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>0.19***</v>
-      </c>
-      <c r="D4" s="3" t="str">
+        <v>0.043*</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <f>[1]mechanism!D5</f>
-        <v>47.2</v>
-      </c>
-      <c r="E4" s="3" t="str">
+        <v>0.046**</v>
+      </c>
+      <c r="E4" s="1" t="str">
         <f>[1]mechanism!E5</f>
-        <v>-8.43***</v>
-      </c>
-      <c r="F4" s="3" t="str">
+        <v>0.042</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <f>[1]mechanism!F5</f>
-        <v>-13.0***</v>
-      </c>
-      <c r="G4" s="3" t="str">
+        <v>0.17***</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.013</v>
-      </c>
-      <c r="H4" s="3" t="str">
+        <v>0.042*</v>
+      </c>
+      <c r="H4" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>0.091***</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>[1]mechanism!I5</f>
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-8.44***</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>[1]mechanism!A6</f>
         <v/>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="1" t="str">
         <f>[1]mechanism!B6</f>
         <v>(1.06)</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(0.045)</v>
-      </c>
-      <c r="D5" s="3" t="str">
+        <v>(0.024)</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <f>[1]mechanism!D6</f>
-        <v>(54.3)</v>
-      </c>
-      <c r="E5" s="3" t="str">
+        <v>(0.023)</v>
+      </c>
+      <c r="E5" s="1" t="str">
         <f>[1]mechanism!E6</f>
+        <v>(0.034)</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>[1]mechanism!F6</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>[1]mechanism!G6</f>
+        <v>(0.024)</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>[1]mechanism!H6</f>
         <v>(2.74)</v>
       </c>
-      <c r="F5" s="3" t="str">
-        <f>[1]mechanism!F6</f>
-        <v>(2.41)</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f>[1]mechanism!G6</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f>[1]mechanism!H6</f>
-        <v>(0.024)</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f>[1]mechanism!I6</f>
-        <v>(0.019)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="str">
         <f>[1]mechanism!B8</f>
-        <v>-2.01**</v>
-      </c>
-      <c r="C6" s="3" t="str">
+        <v>-1.99**</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>0.12**</v>
-      </c>
-      <c r="D6" s="3" t="str">
+        <v>-0.018</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>[1]mechanism!D8</f>
-        <v>-54.3</v>
-      </c>
-      <c r="E6" s="3" t="str">
+        <v>-0.019</v>
+      </c>
+      <c r="E6" s="1" t="str">
         <f>[1]mechanism!E8</f>
-        <v>-0.00089</v>
-      </c>
-      <c r="F6" s="3" t="str">
+        <v>0.061*</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f>[1]mechanism!F8</f>
-        <v>1.30</v>
-      </c>
-      <c r="G6" s="3" t="str">
+        <v>0.13***</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.0032</v>
-      </c>
-      <c r="H6" s="3" t="str">
+        <v>-0.018</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>0.0065</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f>[1]mechanism!I8</f>
-        <v>0.0032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]mechanism!A9</f>
         <v/>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="1" t="str">
         <f>[1]mechanism!B9</f>
         <v>(0.98)</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(0.048)</v>
-      </c>
-      <c r="D7" s="3" t="str">
+        <v>(0.020)</v>
+      </c>
+      <c r="D7" s="1" t="str">
         <f>[1]mechanism!D9</f>
-        <v>(45.7)</v>
-      </c>
-      <c r="E7" s="3" t="str">
+        <v>(0.019)</v>
+      </c>
+      <c r="E7" s="1" t="str">
         <f>[1]mechanism!E9</f>
-        <v>(2.88)</v>
-      </c>
-      <c r="F7" s="3" t="str">
+        <v>(0.035)</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f>[1]mechanism!F9</f>
-        <v>(2.42)</v>
-      </c>
-      <c r="G7" s="3" t="str">
+        <v>(0.046)</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.017)</v>
-      </c>
-      <c r="H7" s="3" t="str">
+        <v>(0.019)</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f>[1]mechanism!I9</f>
-        <v>(0.017)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+        <v>(2.89)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>[1]mechanism!B11</f>
+        <v>8380</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>[1]mechanism!C11</f>
+        <v>8519</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>[1]mechanism!D11</f>
+        <v>8519</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f>[1]mechanism!E11</f>
+        <v>8519</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f>[1]mechanism!F11</f>
+        <v>3968</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>[1]mechanism!G11</f>
+        <v>8519</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f>[1]mechanism!H11</f>
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="str">
-        <f>[1]mechanism!B11</f>
-        <v>8382</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f>[1]mechanism!C11</f>
-        <v>8521</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>[1]mechanism!D11</f>
-        <v>8521</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f>[1]mechanism!E11</f>
-        <v>3970</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>[1]mechanism!F11</f>
-        <v>8521</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f>[1]mechanism!G11</f>
-        <v>8521</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f>[1]mechanism!H11</f>
-        <v>8521</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f>[1]mechanism!I11</f>
-        <v>8521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="1" t="str">
         <f>[1]mechanism!B12</f>
         <v>0.025</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="1" t="str">
         <f>[1]mechanism!C12</f>
-        <v>0.015</v>
-      </c>
-      <c r="D10" s="3" t="str">
+        <v>0.017</v>
+      </c>
+      <c r="D10" s="1" t="str">
         <f>[1]mechanism!D12</f>
-        <v>0.010</v>
-      </c>
-      <c r="E10" s="3" t="str">
+        <v>0.021</v>
+      </c>
+      <c r="E10" s="1" t="str">
         <f>[1]mechanism!E12</f>
-        <v>0.039</v>
-      </c>
-      <c r="F10" s="3" t="str">
+        <v>0.018</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f>[1]mechanism!F12</f>
-        <v>0.032</v>
-      </c>
-      <c r="G10" s="3" t="str">
+        <v>0.027</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f>[1]mechanism!G12</f>
         <v>0.017</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.016</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f>[1]mechanism!I12</f>
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="str">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="str">
         <f>[1]mechanism!A13</f>
         <v>Control Mean</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="3" t="str">
         <f>[1]mechanism!B13</f>
         <v>90.0</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>1.06</v>
-      </c>
-      <c r="D11" s="6" t="str">
+        <v>0.48</v>
+      </c>
+      <c r="D11" s="3" t="str">
         <f>[1]mechanism!D13</f>
-        <v>760.5</v>
-      </c>
-      <c r="E11" s="6" t="str">
+        <v>0.34</v>
+      </c>
+      <c r="E11" s="3" t="str">
         <f>[1]mechanism!E13</f>
+        <v>0.99</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>[1]mechanism!F13</f>
+        <v>1.30</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>[1]mechanism!G13</f>
+        <v>0.52</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f>[1]mechanism!H13</f>
         <v>92.5</v>
       </c>
-      <c r="F11" s="6" t="str">
-        <f>[1]mechanism!F13</f>
+    </row>
+    <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>[1]mechanism!I2</f>
+        <v>(8)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>[1]mechanism!J2</f>
+        <v>(9)</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>[1]mechanism!K2</f>
+        <v>(10)</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f>[1]mechanism!L2</f>
+        <v>(11)</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>[1]mechanism!M2</f>
+        <v>(12)</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>[1]mechanism!N2</f>
+        <v>(13)</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>[1]mechanism!I5</f>
+        <v>-13.0***</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>[1]mechanism!J5</f>
+        <v>0.091***</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>[1]mechanism!K5</f>
+        <v>-0.045***</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>[1]mechanism!L5</f>
+        <v>-0.13***</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>[1]mechanism!M5</f>
+        <v>0.013</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>[1]mechanism!N5</f>
+        <v>0.15***</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>[1]mechanism!I6</f>
+        <v>(2.41)</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>[1]mechanism!J6</f>
+        <v>(0.024)</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>[1]mechanism!K6</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>[1]mechanism!L6</f>
+        <v>(0.020)</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>[1]mechanism!M6</f>
+        <v>(0.019)</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>[1]mechanism!N6</f>
+        <v>(0.031)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>[1]mechanism!I8</f>
+        <v>1.31</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>[1]mechanism!J8</f>
+        <v>0.0065</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>[1]mechanism!K8</f>
+        <v>0.0089</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>[1]mechanism!L8</f>
+        <v>-0.0053</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>[1]mechanism!M8</f>
+        <v>0.0032</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>[1]mechanism!N8</f>
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>[1]mechanism!I9</f>
+        <v>(2.43)</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>[1]mechanism!J9</f>
+        <v>(0.021)</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>[1]mechanism!K9</f>
+        <v>(0.013)</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>[1]mechanism!L9</f>
+        <v>(0.018)</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>[1]mechanism!M9</f>
+        <v>(0.017)</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>[1]mechanism!N9</f>
+        <v>(0.026)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>[1]mechanism!I11</f>
+        <v>8519</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>[1]mechanism!J11</f>
+        <v>8519</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>[1]mechanism!K11</f>
+        <v>4551</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>[1]mechanism!L11</f>
+        <v>8519</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f>[1]mechanism!M11</f>
+        <v>8519</v>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f>[1]mechanism!N11</f>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>[1]mechanism!I12</f>
+        <v>0.032</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>[1]mechanism!J12</f>
+        <v>0.015</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>[1]mechanism!K12</f>
+        <v>0.046</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>[1]mechanism!L12</f>
+        <v>0.042</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>[1]mechanism!M12</f>
+        <v>0.017</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>[1]mechanism!N12</f>
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>[1]mechanism!I13</f>
         <v>117.7</v>
       </c>
-      <c r="G11" s="6" t="str">
-        <f>[1]mechanism!G13</f>
-        <v>0.69</v>
-      </c>
-      <c r="H11" s="6" t="str">
-        <f>[1]mechanism!H13</f>
+      <c r="C22" s="3" t="str">
+        <f>[1]mechanism!J13</f>
         <v>0.64</v>
       </c>
-      <c r="I11" s="6" t="str">
-        <f>[1]mechanism!I13</f>
+      <c r="D22" s="3" t="str">
+        <f>[1]mechanism!K13</f>
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f>[1]mechanism!L13</f>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>[1]mechanism!M13</f>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="G22" s="3" t="str">
+        <f>[1]mechanism!N13</f>
+        <v>0.55</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1DC3E7-4A0E-4BA9-A9CC-C7C41E027BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4620AF33-8338-40F6-B0D9-3AB8D66C9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>R-squared</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Mean % size of pay</t>
+  </si>
+  <si>
+    <t># of visits $|$ def</t>
   </si>
 </sst>
 </file>
@@ -288,13 +291,16 @@
           <cell r="N2" t="str">
             <v>(13)</v>
           </cell>
+          <cell r="O2" t="str">
+            <v>(14)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-8.59***</v>
+            <v>-13.0***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.043*</v>
+            <v>0.042*</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.046**</v>
@@ -303,30 +309,33 @@
             <v>0.042</v>
           </cell>
           <cell r="F5" t="str">
+            <v>-0.24***</v>
+          </cell>
+          <cell r="G5" t="str">
             <v>0.17***</v>
           </cell>
-          <cell r="G5" t="str">
+          <cell r="H5" t="str">
             <v>0.042*</v>
           </cell>
-          <cell r="H5" t="str">
+          <cell r="I5" t="str">
             <v>-8.44***</v>
           </cell>
-          <cell r="I5" t="str">
-            <v>-13.0***</v>
-          </cell>
           <cell r="J5" t="str">
+            <v>-13.5***</v>
+          </cell>
+          <cell r="K5" t="str">
             <v>0.091***</v>
           </cell>
-          <cell r="K5" t="str">
-            <v>-0.045***</v>
-          </cell>
           <cell r="L5" t="str">
+            <v>-0.046***</v>
+          </cell>
+          <cell r="M5" t="str">
             <v>-0.13***</v>
           </cell>
-          <cell r="M5" t="str">
+          <cell r="N5" t="str">
             <v>0.013</v>
           </cell>
-          <cell r="N5" t="str">
+          <cell r="O5" t="str">
             <v>0.15***</v>
           </cell>
         </row>
@@ -335,10 +344,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.06)</v>
+            <v>(1.38)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.024)</v>
+            <v>(0.025)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.023)</v>
@@ -347,39 +356,42 @@
             <v>(0.034)</v>
           </cell>
           <cell r="F6" t="str">
+            <v>(0.057)</v>
+          </cell>
+          <cell r="G6" t="str">
             <v>(0.042)</v>
           </cell>
-          <cell r="G6" t="str">
+          <cell r="H6" t="str">
             <v>(0.024)</v>
           </cell>
-          <cell r="H6" t="str">
+          <cell r="I6" t="str">
             <v>(2.74)</v>
           </cell>
-          <cell r="I6" t="str">
-            <v>(2.41)</v>
-          </cell>
           <cell r="J6" t="str">
+            <v>(2.53)</v>
+          </cell>
+          <cell r="K6" t="str">
             <v>(0.024)</v>
           </cell>
-          <cell r="K6" t="str">
+          <cell r="L6" t="str">
             <v>(0.015)</v>
           </cell>
-          <cell r="L6" t="str">
+          <cell r="M6" t="str">
             <v>(0.020)</v>
           </cell>
-          <cell r="M6" t="str">
+          <cell r="N6" t="str">
             <v>(0.019)</v>
           </cell>
-          <cell r="N6" t="str">
+          <cell r="O6" t="str">
             <v>(0.031)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-1.99**</v>
+            <v>-3.29***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.018</v>
+            <v>-0.019</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.019</v>
@@ -388,30 +400,33 @@
             <v>0.061*</v>
           </cell>
           <cell r="F8" t="str">
+            <v>0.0021</v>
+          </cell>
+          <cell r="G8" t="str">
             <v>0.13***</v>
           </cell>
-          <cell r="G8" t="str">
+          <cell r="H8" t="str">
             <v>-0.018</v>
           </cell>
-          <cell r="H8" t="str">
+          <cell r="I8" t="str">
             <v>0.024</v>
           </cell>
-          <cell r="I8" t="str">
-            <v>1.31</v>
-          </cell>
           <cell r="J8" t="str">
-            <v>0.0065</v>
+            <v>1.46</v>
           </cell>
           <cell r="K8" t="str">
-            <v>0.0089</v>
+            <v>0.0066</v>
           </cell>
           <cell r="L8" t="str">
+            <v>0.0092</v>
+          </cell>
+          <cell r="M8" t="str">
             <v>-0.0053</v>
           </cell>
-          <cell r="M8" t="str">
+          <cell r="N8" t="str">
             <v>0.0032</v>
           </cell>
-          <cell r="N8" t="str">
+          <cell r="O8" t="str">
             <v>0.011</v>
           </cell>
         </row>
@@ -420,7 +435,7 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.98)</v>
+            <v>(1.24)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.020)</v>
@@ -432,36 +447,39 @@
             <v>(0.035)</v>
           </cell>
           <cell r="F9" t="str">
+            <v>(0.048)</v>
+          </cell>
+          <cell r="G9" t="str">
             <v>(0.046)</v>
           </cell>
-          <cell r="G9" t="str">
+          <cell r="H9" t="str">
             <v>(0.019)</v>
           </cell>
-          <cell r="H9" t="str">
+          <cell r="I9" t="str">
             <v>(2.89)</v>
           </cell>
-          <cell r="I9" t="str">
-            <v>(2.43)</v>
-          </cell>
           <cell r="J9" t="str">
+            <v>(2.56)</v>
+          </cell>
+          <cell r="K9" t="str">
             <v>(0.021)</v>
           </cell>
-          <cell r="K9" t="str">
+          <cell r="L9" t="str">
             <v>(0.013)</v>
           </cell>
-          <cell r="L9" t="str">
+          <cell r="M9" t="str">
             <v>(0.018)</v>
           </cell>
-          <cell r="M9" t="str">
+          <cell r="N9" t="str">
             <v>(0.017)</v>
           </cell>
-          <cell r="N9" t="str">
+          <cell r="O9" t="str">
             <v>(0.026)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>8380</v>
+            <v>5907</v>
           </cell>
           <cell r="C11" t="str">
             <v>8519</v>
@@ -473,36 +491,39 @@
             <v>8519</v>
           </cell>
           <cell r="F11" t="str">
+            <v>4551</v>
+          </cell>
+          <cell r="G11" t="str">
             <v>3968</v>
           </cell>
-          <cell r="G11" t="str">
+          <cell r="H11" t="str">
             <v>8519</v>
           </cell>
-          <cell r="H11" t="str">
+          <cell r="I11" t="str">
             <v>3968</v>
           </cell>
-          <cell r="I11" t="str">
+          <cell r="J11" t="str">
+            <v>7934</v>
+          </cell>
+          <cell r="K11" t="str">
             <v>8519</v>
           </cell>
-          <cell r="J11" t="str">
-            <v>8519</v>
-          </cell>
-          <cell r="K11" t="str">
+          <cell r="L11" t="str">
             <v>4551</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>8519</v>
           </cell>
           <cell r="M11" t="str">
             <v>8519</v>
           </cell>
           <cell r="N11" t="str">
+            <v>8519</v>
+          </cell>
+          <cell r="O11" t="str">
             <v>4551</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.025</v>
+            <v>0.056</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.017</v>
@@ -514,30 +535,33 @@
             <v>0.018</v>
           </cell>
           <cell r="F12" t="str">
+            <v>0.050</v>
+          </cell>
+          <cell r="G12" t="str">
             <v>0.027</v>
           </cell>
-          <cell r="G12" t="str">
+          <cell r="H12" t="str">
             <v>0.017</v>
           </cell>
-          <cell r="H12" t="str">
+          <cell r="I12" t="str">
             <v>0.039</v>
           </cell>
-          <cell r="I12" t="str">
-            <v>0.032</v>
-          </cell>
           <cell r="J12" t="str">
+            <v>0.035</v>
+          </cell>
+          <cell r="K12" t="str">
             <v>0.015</v>
           </cell>
-          <cell r="K12" t="str">
+          <cell r="L12" t="str">
             <v>0.046</v>
           </cell>
-          <cell r="L12" t="str">
+          <cell r="M12" t="str">
             <v>0.042</v>
           </cell>
-          <cell r="M12" t="str">
+          <cell r="N12" t="str">
             <v>0.017</v>
           </cell>
-          <cell r="N12" t="str">
+          <cell r="O12" t="str">
             <v>0.062</v>
           </cell>
         </row>
@@ -546,7 +570,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>90.0</v>
+            <v>82.5</v>
           </cell>
           <cell r="C13" t="str">
             <v>0.48</v>
@@ -558,30 +582,33 @@
             <v>0.99</v>
           </cell>
           <cell r="F13" t="str">
+            <v>0.75</v>
+          </cell>
+          <cell r="G13" t="str">
             <v>1.30</v>
           </cell>
-          <cell r="G13" t="str">
+          <cell r="H13" t="str">
             <v>0.52</v>
           </cell>
-          <cell r="H13" t="str">
+          <cell r="I13" t="str">
             <v>92.5</v>
           </cell>
-          <cell r="I13" t="str">
-            <v>117.7</v>
-          </cell>
           <cell r="J13" t="str">
+            <v>116.1</v>
+          </cell>
+          <cell r="K13" t="str">
             <v>0.64</v>
           </cell>
-          <cell r="K13" t="str">
+          <cell r="L13" t="str">
             <v>0.18</v>
           </cell>
-          <cell r="L13" t="str">
+          <cell r="M13" t="str">
             <v>0.25</v>
           </cell>
-          <cell r="M13" t="str">
+          <cell r="N13" t="str">
             <v>0.31</v>
           </cell>
-          <cell r="N13" t="str">
+          <cell r="O13" t="str">
             <v>0.55</v>
           </cell>
         </row>
@@ -931,13 +958,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -980,11 +1007,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]mechanism!B5</f>
-        <v>-8.59***</v>
+        <v>-13.0***</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>0.043*</v>
+        <v>0.042*</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]mechanism!D5</f>
@@ -996,15 +1023,15 @@
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]mechanism!F5</f>
-        <v>0.17***</v>
+        <v>-0.24***</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>0.042*</v>
+        <v>0.17***</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-8.44***</v>
+        <v>0.042*</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1014,11 +1041,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]mechanism!B6</f>
-        <v>(1.06)</v>
+        <v>(1.38)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(0.024)</v>
+        <v>(0.025)</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D6</f>
@@ -1030,15 +1057,15 @@
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]mechanism!F6</f>
-        <v>(0.042)</v>
+        <v>(0.057)</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]mechanism!G6</f>
-        <v>(0.024)</v>
+        <v>(0.042)</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(2.74)</v>
+        <v>(0.024)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1047,11 +1074,11 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]mechanism!B8</f>
-        <v>-1.99**</v>
+        <v>-3.29***</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D8</f>
@@ -1063,15 +1090,15 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]mechanism!F8</f>
-        <v>0.13***</v>
+        <v>0.0021</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.018</v>
+        <v>0.13***</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>0.024</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1081,7 +1108,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]mechanism!B9</f>
-        <v>(0.98)</v>
+        <v>(1.24)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C9</f>
@@ -1097,15 +1124,15 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]mechanism!F9</f>
-        <v>(0.046)</v>
+        <v>(0.048)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.019)</v>
+        <v>(0.046)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(2.89)</v>
+        <v>(0.019)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1114,7 +1141,7 @@
       </c>
       <c r="B9" s="8" t="str">
         <f>[1]mechanism!B11</f>
-        <v>8380</v>
+        <v>5907</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>[1]mechanism!C11</f>
@@ -1130,15 +1157,15 @@
       </c>
       <c r="F9" s="8" t="str">
         <f>[1]mechanism!F11</f>
-        <v>3968</v>
+        <v>4551</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>[1]mechanism!G11</f>
-        <v>8519</v>
+        <v>3968</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>[1]mechanism!H11</f>
-        <v>3968</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1147,7 +1174,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]mechanism!B12</f>
-        <v>0.025</v>
+        <v>0.056</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]mechanism!C12</f>
@@ -1163,15 +1190,15 @@
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]mechanism!F12</f>
-        <v>0.027</v>
+        <v>0.050</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.017</v>
+        <v>0.027</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1181,7 +1208,7 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>[1]mechanism!B13</f>
-        <v>90.0</v>
+        <v>82.5</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]mechanism!C13</f>
@@ -1197,15 +1224,15 @@
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]mechanism!F13</f>
-        <v>1.30</v>
+        <v>0.75</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>[1]mechanism!G13</f>
-        <v>0.52</v>
+        <v>1.30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>92.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1221,24 +1248,26 @@
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1268,7 +1297,10 @@
         <f>[1]mechanism!N2</f>
         <v>(13)</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="str">
+        <f>[1]mechanism!O2</f>
+        <v>(14)</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1276,26 +1308,30 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]mechanism!I5</f>
-        <v>-13.0***</v>
+        <v>-8.44***</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>0.091***</v>
+        <v>-13.5***</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]mechanism!K5</f>
-        <v>-0.045***</v>
+        <v>0.091***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]mechanism!L5</f>
-        <v>-0.13***</v>
+        <v>-0.046***</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]mechanism!M5</f>
-        <v>0.013</v>
+        <v>-0.13***</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[1]mechanism!N5</f>
+        <v>0.013</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>[1]mechanism!O5</f>
         <v>0.15***</v>
       </c>
     </row>
@@ -1305,26 +1341,30 @@
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]mechanism!I6</f>
-        <v>(2.41)</v>
+        <v>(2.74)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(0.024)</v>
+        <v>(2.53)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]mechanism!K6</f>
-        <v>(0.015)</v>
+        <v>(0.024)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]mechanism!L6</f>
-        <v>(0.020)</v>
+        <v>(0.015)</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]mechanism!M6</f>
-        <v>(0.019)</v>
+        <v>(0.020)</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>[1]mechanism!N6</f>
+        <v>(0.019)</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>[1]mechanism!O6</f>
         <v>(0.031)</v>
       </c>
     </row>
@@ -1334,26 +1374,30 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>1.31</v>
+        <v>0.024</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>0.0065</v>
+        <v>1.46</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>0.0089</v>
+        <v>0.0066</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>-0.0053</v>
+        <v>0.0092</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>[1]mechanism!M8</f>
-        <v>0.0032</v>
+        <v>-0.0053</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]mechanism!N8</f>
+        <v>0.0032</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>[1]mechanism!O8</f>
         <v>0.011</v>
       </c>
     </row>
@@ -1363,26 +1407,30 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]mechanism!I9</f>
-        <v>(2.43)</v>
+        <v>(2.89)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(0.021)</v>
+        <v>(2.56)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]mechanism!K9</f>
-        <v>(0.013)</v>
+        <v>(0.021)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]mechanism!L9</f>
-        <v>(0.018)</v>
+        <v>(0.013)</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>[1]mechanism!M9</f>
-        <v>(0.017)</v>
+        <v>(0.018)</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]mechanism!N9</f>
+        <v>(0.017)</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>[1]mechanism!O9</f>
         <v>(0.026)</v>
       </c>
     </row>
@@ -1402,19 +1450,19 @@
       </c>
       <c r="B20" s="8" t="str">
         <f>[1]mechanism!I11</f>
-        <v>8519</v>
+        <v>3968</v>
       </c>
       <c r="C20" s="8" t="str">
         <f>[1]mechanism!J11</f>
-        <v>8519</v>
+        <v>7934</v>
       </c>
       <c r="D20" s="8" t="str">
         <f>[1]mechanism!K11</f>
-        <v>4551</v>
+        <v>8519</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>[1]mechanism!L11</f>
-        <v>8519</v>
+        <v>4551</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>[1]mechanism!M11</f>
@@ -1422,6 +1470,10 @@
       </c>
       <c r="G20" s="8" t="str">
         <f>[1]mechanism!N11</f>
+        <v>8519</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f>[1]mechanism!O11</f>
         <v>4551</v>
       </c>
     </row>
@@ -1431,26 +1483,30 @@
       </c>
       <c r="B21" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.015</v>
+        <v>0.035</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.046</v>
+        <v>0.015</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]mechanism!L12</f>
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]mechanism!M12</f>
-        <v>0.017</v>
+        <v>0.042</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>[1]mechanism!N12</f>
+        <v>0.017</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>[1]mechanism!O12</f>
         <v>0.062</v>
       </c>
     </row>
@@ -1460,29 +1516,32 @@
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>117.7</v>
+        <v>92.5</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>0.64</v>
+        <v>116.1</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>[1]mechanism!K13</f>
-        <v>0.18</v>
+        <v>0.64</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]mechanism!L13</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]mechanism!M13</f>
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>[1]mechanism!N13</f>
+        <v>0.31</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>[1]mechanism!O13</f>
         <v>0.55</v>
       </c>
-      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4620AF33-8338-40F6-B0D9-3AB8D66C9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8261B6-05D1-4A11-B4D3-D3A9FF790353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-20385" yWindow="-14670" windowWidth="19185" windowHeight="11265" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -297,46 +297,46 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-13.0***</v>
+            <v>-13.7***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.042*</v>
+            <v>0.079***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.046**</v>
+            <v>0.080***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.042</v>
+            <v>-0.033</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.24***</v>
+            <v>-0.18***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.17***</v>
+            <v>0.063</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.042*</v>
+            <v>0.071***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-8.44***</v>
+            <v>-17.8***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-13.5***</v>
+            <v>-28.1***</v>
           </cell>
           <cell r="K5" t="str">
-            <v>0.091***</v>
+            <v>0.094***</v>
           </cell>
           <cell r="L5" t="str">
-            <v>-0.046***</v>
+            <v>-0.037***</v>
           </cell>
           <cell r="M5" t="str">
-            <v>-0.13***</v>
+            <v>-0.068***</v>
           </cell>
           <cell r="N5" t="str">
-            <v>0.013</v>
+            <v>0.0054</v>
           </cell>
           <cell r="O5" t="str">
-            <v>0.15***</v>
+            <v>0.14***</v>
           </cell>
         </row>
         <row r="6">
@@ -344,90 +344,90 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.38)</v>
+            <v>(1.60)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.025)</v>
+            <v>(0.028)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.023)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.034)</v>
+            <v>(0.049)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.057)</v>
+            <v>(0.048)</v>
           </cell>
           <cell r="G6" t="str">
-            <v>(0.042)</v>
+            <v>(0.053)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(0.024)</v>
+            <v>(0.027)</v>
           </cell>
           <cell r="I6" t="str">
-            <v>(2.74)</v>
+            <v>(3.88)</v>
           </cell>
           <cell r="J6" t="str">
-            <v>(2.53)</v>
+            <v>(4.36)</v>
           </cell>
           <cell r="K6" t="str">
-            <v>(0.024)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>(0.015)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="M6" t="str">
-            <v>(0.020)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="N6" t="str">
-            <v>(0.019)</v>
+            <v>(0.021)</v>
           </cell>
           <cell r="O6" t="str">
-            <v>(0.031)</v>
+            <v>(0.033)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-3.29***</v>
+            <v>-3.59**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.019</v>
+            <v>-0.0073</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.019</v>
+            <v>-0.0084</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.061*</v>
+            <v>0.077</v>
           </cell>
           <cell r="F8" t="str">
-            <v>0.0021</v>
+            <v>-0.068</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.13***</v>
+            <v>0.13**</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-0.018</v>
+            <v>-0.011</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.024</v>
+            <v>-1.33</v>
           </cell>
           <cell r="J8" t="str">
-            <v>1.46</v>
+            <v>-0.90</v>
           </cell>
           <cell r="K8" t="str">
-            <v>0.0066</v>
+            <v>0.014</v>
           </cell>
           <cell r="L8" t="str">
-            <v>0.0092</v>
+            <v>-0.015</v>
           </cell>
           <cell r="M8" t="str">
-            <v>-0.0053</v>
+            <v>-0.025*</v>
           </cell>
           <cell r="N8" t="str">
-            <v>0.0032</v>
+            <v>0.0043</v>
           </cell>
           <cell r="O8" t="str">
-            <v>0.011</v>
+            <v>0.046</v>
           </cell>
         </row>
         <row r="9">
@@ -435,134 +435,134 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(1.24)</v>
+            <v>(1.54)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.020)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="D9" t="str">
+            <v>(0.022)</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>(0.052)</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>(0.041)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.064)</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>(0.022)</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>(4.19)</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>(4.17)</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>(0.023)</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>(0.010)</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="N9" t="str">
             <v>(0.019)</v>
           </cell>
-          <cell r="E9" t="str">
-            <v>(0.035)</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>(0.048)</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>(0.046)</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(0.019)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(2.89)</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>(2.56)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>(0.021)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.013)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(0.018)</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>(0.017)</v>
-          </cell>
           <cell r="O9" t="str">
-            <v>(0.026)</v>
+            <v>(0.029)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>5907</v>
+            <v>4412</v>
           </cell>
           <cell r="C11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="D11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="E11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="F11" t="str">
-            <v>4551</v>
+            <v>2485</v>
           </cell>
           <cell r="G11" t="str">
-            <v>3968</v>
+            <v>3031</v>
           </cell>
           <cell r="H11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="I11" t="str">
-            <v>3968</v>
+            <v>3031</v>
           </cell>
           <cell r="J11" t="str">
-            <v>7934</v>
+            <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="L11" t="str">
-            <v>4551</v>
+            <v>2485</v>
           </cell>
           <cell r="M11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="N11" t="str">
-            <v>8519</v>
+            <v>6304</v>
           </cell>
           <cell r="O11" t="str">
-            <v>4551</v>
+            <v>2485</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.056</v>
+            <v>0.057</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.017</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.021</v>
+            <v>0.019</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.018</v>
+            <v>0.030</v>
           </cell>
           <cell r="F12" t="str">
-            <v>0.050</v>
+            <v>0.025</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.027</v>
+            <v>0.020</v>
           </cell>
           <cell r="H12" t="str">
             <v>0.017</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.039</v>
+            <v>0.043</v>
           </cell>
           <cell r="J12" t="str">
-            <v>0.035</v>
+            <v>0.066</v>
           </cell>
           <cell r="K12" t="str">
-            <v>0.015</v>
+            <v>0.018</v>
           </cell>
           <cell r="L12" t="str">
-            <v>0.046</v>
+            <v>0.022</v>
           </cell>
           <cell r="M12" t="str">
-            <v>0.042</v>
+            <v>0.011</v>
           </cell>
           <cell r="N12" t="str">
-            <v>0.017</v>
+            <v>0.019</v>
           </cell>
           <cell r="O12" t="str">
-            <v>0.062</v>
+            <v>0.036</v>
           </cell>
         </row>
         <row r="13">
@@ -570,46 +570,46 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>82.5</v>
+            <v>82.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>0.48</v>
+            <v>0.45</v>
           </cell>
           <cell r="D13" t="str">
-            <v>0.34</v>
+            <v>0.30</v>
           </cell>
           <cell r="E13" t="str">
-            <v>0.99</v>
+            <v>1.14</v>
           </cell>
           <cell r="F13" t="str">
-            <v>0.75</v>
+            <v>0.38</v>
           </cell>
           <cell r="G13" t="str">
-            <v>1.30</v>
+            <v>1.44</v>
           </cell>
           <cell r="H13" t="str">
-            <v>0.52</v>
+            <v>0.49</v>
           </cell>
           <cell r="I13" t="str">
-            <v>92.5</v>
+            <v>103.9</v>
           </cell>
           <cell r="J13" t="str">
-            <v>116.1</v>
+            <v>136.6</v>
           </cell>
           <cell r="K13" t="str">
-            <v>0.64</v>
+            <v>0.67</v>
           </cell>
           <cell r="L13" t="str">
-            <v>0.18</v>
+            <v>0.092</v>
           </cell>
           <cell r="M13" t="str">
-            <v>0.25</v>
+            <v>0.12</v>
           </cell>
           <cell r="N13" t="str">
             <v>0.31</v>
           </cell>
           <cell r="O13" t="str">
-            <v>0.55</v>
+            <v>0.72</v>
           </cell>
         </row>
       </sheetData>
@@ -924,7 +924,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.90625" style="1" bestFit="1" customWidth="1"/>
@@ -1007,31 +1007,31 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]mechanism!B5</f>
-        <v>-13.0***</v>
+        <v>-13.7***</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>0.042*</v>
+        <v>0.079***</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]mechanism!D5</f>
-        <v>0.046**</v>
+        <v>0.080***</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>[1]mechanism!E5</f>
-        <v>0.042</v>
+        <v>-0.033</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]mechanism!F5</f>
-        <v>-0.24***</v>
+        <v>-0.18***</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>0.17***</v>
+        <v>0.063</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>0.042*</v>
+        <v>0.071***</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1041,31 +1041,31 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]mechanism!B6</f>
-        <v>(1.38)</v>
+        <v>(1.60)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(0.025)</v>
+        <v>(0.028)</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D6</f>
-        <v>(0.023)</v>
+        <v>(0.026)</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]mechanism!E6</f>
-        <v>(0.034)</v>
+        <v>(0.049)</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]mechanism!F6</f>
-        <v>(0.057)</v>
+        <v>(0.048)</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]mechanism!G6</f>
-        <v>(0.042)</v>
+        <v>(0.053)</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(0.024)</v>
+        <v>(0.027)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1074,31 +1074,31 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]mechanism!B8</f>
-        <v>-3.29***</v>
+        <v>-3.59**</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.019</v>
+        <v>-0.0073</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D8</f>
-        <v>-0.019</v>
+        <v>-0.0084</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]mechanism!E8</f>
-        <v>0.061*</v>
+        <v>0.077</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]mechanism!F8</f>
-        <v>0.0021</v>
+        <v>-0.068</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>0.13***</v>
+        <v>0.13**</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-0.018</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1108,31 +1108,31 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]mechanism!B9</f>
-        <v>(1.24)</v>
+        <v>(1.54)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(0.020)</v>
+        <v>(0.022)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D9</f>
-        <v>(0.019)</v>
+        <v>(0.022)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]mechanism!E9</f>
-        <v>(0.035)</v>
+        <v>(0.052)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]mechanism!F9</f>
-        <v>(0.048)</v>
+        <v>(0.041)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.046)</v>
+        <v>(0.064)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(0.019)</v>
+        <v>(0.022)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1141,31 +1141,31 @@
       </c>
       <c r="B9" s="8" t="str">
         <f>[1]mechanism!B11</f>
-        <v>5907</v>
+        <v>4412</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>[1]mechanism!C11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="D9" s="8" t="str">
         <f>[1]mechanism!D11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>[1]mechanism!E11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>[1]mechanism!F11</f>
-        <v>4551</v>
+        <v>2485</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>[1]mechanism!G11</f>
-        <v>3968</v>
+        <v>3031</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>[1]mechanism!H11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]mechanism!B12</f>
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]mechanism!C12</f>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]mechanism!D12</f>
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]mechanism!E12</f>
-        <v>0.018</v>
+        <v>0.030</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]mechanism!F12</f>
-        <v>0.050</v>
+        <v>0.025</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.027</v>
+        <v>0.020</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]mechanism!H12</f>
@@ -1208,31 +1208,31 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>[1]mechanism!B13</f>
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>[1]mechanism!D13</f>
-        <v>0.34</v>
+        <v>0.30</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]mechanism!E13</f>
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]mechanism!F13</f>
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>[1]mechanism!G13</f>
-        <v>1.30</v>
+        <v>1.44</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1308,31 +1308,31 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]mechanism!I5</f>
-        <v>-8.44***</v>
+        <v>-17.8***</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>-13.5***</v>
+        <v>-28.1***</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]mechanism!K5</f>
-        <v>0.091***</v>
+        <v>0.094***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]mechanism!L5</f>
-        <v>-0.046***</v>
+        <v>-0.037***</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]mechanism!M5</f>
-        <v>-0.13***</v>
+        <v>-0.068***</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[1]mechanism!N5</f>
-        <v>0.013</v>
+        <v>0.0054</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>[1]mechanism!O5</f>
-        <v>0.15***</v>
+        <v>0.14***</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1341,31 +1341,31 @@
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]mechanism!I6</f>
-        <v>(2.74)</v>
+        <v>(3.88)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(2.53)</v>
+        <v>(4.36)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]mechanism!K6</f>
-        <v>(0.024)</v>
+        <v>(0.026)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]mechanism!L6</f>
-        <v>(0.015)</v>
+        <v>(0.012)</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]mechanism!M6</f>
-        <v>(0.020)</v>
+        <v>(0.014)</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>[1]mechanism!N6</f>
-        <v>(0.019)</v>
+        <v>(0.021)</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>[1]mechanism!O6</f>
-        <v>(0.031)</v>
+        <v>(0.033)</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1374,31 +1374,31 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.024</v>
+        <v>-1.33</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>1.46</v>
+        <v>-0.90</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>0.0066</v>
+        <v>0.014</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>0.0092</v>
+        <v>-0.015</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>[1]mechanism!M8</f>
-        <v>-0.0053</v>
+        <v>-0.025*</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]mechanism!N8</f>
-        <v>0.0032</v>
+        <v>0.0043</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>[1]mechanism!O8</f>
-        <v>0.011</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1407,31 +1407,31 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]mechanism!I9</f>
-        <v>(2.89)</v>
+        <v>(4.19)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(2.56)</v>
+        <v>(4.17)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]mechanism!K9</f>
-        <v>(0.021)</v>
+        <v>(0.023)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]mechanism!L9</f>
-        <v>(0.013)</v>
+        <v>(0.010)</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>[1]mechanism!M9</f>
-        <v>(0.018)</v>
+        <v>(0.013)</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]mechanism!N9</f>
-        <v>(0.017)</v>
+        <v>(0.019)</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>[1]mechanism!O9</f>
-        <v>(0.026)</v>
+        <v>(0.029)</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1450,31 +1450,31 @@
       </c>
       <c r="B20" s="8" t="str">
         <f>[1]mechanism!I11</f>
-        <v>3968</v>
+        <v>3031</v>
       </c>
       <c r="C20" s="8" t="str">
         <f>[1]mechanism!J11</f>
-        <v>7934</v>
+        <v>6304</v>
       </c>
       <c r="D20" s="8" t="str">
         <f>[1]mechanism!K11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>[1]mechanism!L11</f>
-        <v>4551</v>
+        <v>2485</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>[1]mechanism!M11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="G20" s="8" t="str">
         <f>[1]mechanism!N11</f>
-        <v>8519</v>
+        <v>6304</v>
       </c>
       <c r="H20" s="8" t="str">
         <f>[1]mechanism!O11</f>
-        <v>4551</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1483,31 +1483,31 @@
       </c>
       <c r="B21" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.035</v>
+        <v>0.066</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]mechanism!L12</f>
-        <v>0.046</v>
+        <v>0.022</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]mechanism!M12</f>
-        <v>0.042</v>
+        <v>0.011</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>[1]mechanism!N12</f>
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>[1]mechanism!O12</f>
-        <v>0.062</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1516,23 +1516,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>92.5</v>
+        <v>103.9</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>116.1</v>
+        <v>136.6</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>[1]mechanism!K13</f>
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]mechanism!L13</f>
-        <v>0.18</v>
+        <v>0.092</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]mechanism!M13</f>
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>[1]mechanism!N13</f>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H22" s="3" t="str">
         <f>[1]mechanism!O13</f>
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2020\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8261B6-05D1-4A11-B4D3-D3A9FF790353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAEEBE-3972-4721-A527-94B5FEF0344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20385" yWindow="-14670" windowWidth="19185" windowHeight="11265" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>R-squared</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Forced commitment</t>
   </si>
   <si>
-    <t># of visit</t>
-  </si>
-  <si>
-    <t>Total days</t>
-  </si>
-  <si>
-    <t>Selling pawn</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -70,34 +61,40 @@
     <t># of visits $|$ recovery</t>
   </si>
   <si>
-    <t>Days to recovery $|$ recovery</t>
-  </si>
-  <si>
-    <t>Days to 1st payment (1p)</t>
-  </si>
-  <si>
-    <t>% of (1p)</t>
-  </si>
-  <si>
-    <t>Recovery in (1p)</t>
-  </si>
-  <si>
-    <t>+ Pay &amp; def</t>
-  </si>
-  <si>
-    <t>% of pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">% of pay $|$ def </t>
   </si>
   <si>
-    <t>Selling pawn $|$ def</t>
-  </si>
-  <si>
-    <t>Mean % size of pay</t>
-  </si>
-  <si>
     <t># of visits $|$ def</t>
+  </si>
+  <si>
+    <t>% of payment</t>
+  </si>
+  <si>
+    <t>Days to 1st payment</t>
+  </si>
+  <si>
+    <t>% of payment in 1st visit</t>
+  </si>
+  <si>
+    <t># of visits</t>
+  </si>
+  <si>
+    <t>Loan duration $|$ recovery</t>
+  </si>
+  <si>
+    <t>Loan duration (days)</t>
+  </si>
+  <si>
+    <t>$\Pr($Recovery in 1st visit)</t>
+  </si>
+  <si>
+    <t>$\Pr($+ payment &amp; default)</t>
+  </si>
+  <si>
+    <t>$\Pr($Selling pawn)</t>
+  </si>
+  <si>
+    <t>$\Pr($Selling pawn $|$ def)</t>
   </si>
 </sst>
 </file>
@@ -291,52 +288,46 @@
           <cell r="N2" t="str">
             <v>(13)</v>
           </cell>
-          <cell r="O2" t="str">
-            <v>(14)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-13.7***</v>
+            <v>7.92***</v>
           </cell>
           <cell r="C5" t="str">
             <v>0.079***</v>
           </cell>
           <cell r="D5" t="str">
-            <v>0.080***</v>
+            <v>9.43***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-0.033</v>
+            <v>-0.070***</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.18***</v>
+            <v>-3.90***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.063</v>
+            <v>0.0050</v>
           </cell>
           <cell r="H5" t="str">
-            <v>0.071***</v>
+            <v>0.14***</v>
           </cell>
           <cell r="I5" t="str">
-            <v>-17.8***</v>
+            <v>-13.8***</v>
           </cell>
           <cell r="J5" t="str">
-            <v>-28.1***</v>
+            <v>-0.031</v>
           </cell>
           <cell r="K5" t="str">
-            <v>0.094***</v>
+            <v>-0.19***</v>
           </cell>
           <cell r="L5" t="str">
-            <v>-0.037***</v>
+            <v>0.062</v>
           </cell>
           <cell r="M5" t="str">
-            <v>-0.068***</v>
+            <v>-27.9***</v>
           </cell>
           <cell r="N5" t="str">
-            <v>0.0054</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>0.14***</v>
+            <v>-17.9***</v>
           </cell>
         </row>
         <row r="6">
@@ -344,90 +335,84 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.60)</v>
+            <v>(2.78)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.028)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.026)</v>
+            <v>(2.62)</v>
           </cell>
           <cell r="E6" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(1.26)</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>(0.021)</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>(0.034)</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>(1.61)</v>
+          </cell>
+          <cell r="J6" t="str">
             <v>(0.049)</v>
           </cell>
-          <cell r="F6" t="str">
-            <v>(0.048)</v>
-          </cell>
-          <cell r="G6" t="str">
+          <cell r="K6" t="str">
+            <v>(0.049)</v>
+          </cell>
+          <cell r="L6" t="str">
             <v>(0.053)</v>
           </cell>
-          <cell r="H6" t="str">
-            <v>(0.027)</v>
-          </cell>
-          <cell r="I6" t="str">
+          <cell r="M6" t="str">
+            <v>(4.35)</v>
+          </cell>
+          <cell r="N6" t="str">
             <v>(3.88)</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>(4.36)</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>(0.026)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.012)</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>(0.014)</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>(0.021)</v>
-          </cell>
-          <cell r="O6" t="str">
-            <v>(0.033)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-3.59**</v>
+            <v>-0.97</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.0073</v>
+            <v>-0.010</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.0084</v>
+            <v>1.40</v>
           </cell>
           <cell r="E8" t="str">
-            <v>0.077</v>
+            <v>-0.026*</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.068</v>
+            <v>-1.75*</v>
           </cell>
           <cell r="G8" t="str">
+            <v>0.0035</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>0.049*</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>-3.51**</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v>0.085</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>-0.077*</v>
+          </cell>
+          <cell r="L8" t="str">
             <v>0.13**</v>
           </cell>
-          <cell r="H8" t="str">
-            <v>-0.011</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>-1.33</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>-0.90</v>
-          </cell>
-          <cell r="K8" t="str">
-            <v>0.014</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>-0.015</v>
-          </cell>
           <cell r="M8" t="str">
-            <v>-0.025*</v>
+            <v>-0.18</v>
           </cell>
           <cell r="N8" t="str">
-            <v>0.0043</v>
-          </cell>
-          <cell r="O8" t="str">
-            <v>0.046</v>
+            <v>-1.35</v>
           </cell>
         </row>
         <row r="9">
@@ -435,51 +420,48 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(1.54)</v>
+            <v>(2.20)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.022)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.022)</v>
+            <v>(2.36)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.052)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="F9" t="str">
+            <v>(1.00)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>(0.029)</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>(1.57)</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v>(0.053)</v>
+          </cell>
+          <cell r="K9" t="str">
             <v>(0.041)</v>
           </cell>
-          <cell r="G9" t="str">
-            <v>(0.064)</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>(0.022)</v>
-          </cell>
-          <cell r="I9" t="str">
+          <cell r="L9" t="str">
+            <v>(0.063)</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>(4.33)</v>
+          </cell>
+          <cell r="N9" t="str">
             <v>(4.19)</v>
-          </cell>
-          <cell r="J9" t="str">
-            <v>(4.17)</v>
-          </cell>
-          <cell r="K9" t="str">
-            <v>(0.023)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.010)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(0.013)</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>(0.019)</v>
-          </cell>
-          <cell r="O9" t="str">
-            <v>(0.029)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>4412</v>
+            <v>6304</v>
           </cell>
           <cell r="C11" t="str">
             <v>6304</v>
@@ -491,78 +473,72 @@
             <v>6304</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2485</v>
+            <v>2488</v>
           </cell>
           <cell r="G11" t="str">
-            <v>3031</v>
+            <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>6304</v>
+            <v>2488</v>
           </cell>
           <cell r="I11" t="str">
-            <v>3031</v>
+            <v>4412</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>6304</v>
+            <v>2488</v>
           </cell>
           <cell r="L11" t="str">
-            <v>2485</v>
+            <v>3031</v>
           </cell>
           <cell r="M11" t="str">
             <v>6304</v>
           </cell>
           <cell r="N11" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v>2485</v>
+            <v>3031</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.057</v>
+            <v>0.014</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.017</v>
+            <v>0.016</v>
           </cell>
           <cell r="D12" t="str">
-            <v>0.019</v>
+            <v>0.015</v>
           </cell>
           <cell r="E12" t="str">
-            <v>0.030</v>
+            <v>0.011</v>
           </cell>
           <cell r="F12" t="str">
+            <v>0.022</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>0.016</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>0.033</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>0.055</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>0.022</v>
+          </cell>
+          <cell r="K12" t="str">
             <v>0.025</v>
           </cell>
-          <cell r="G12" t="str">
-            <v>0.020</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>0.017</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>0.043</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>0.066</v>
-          </cell>
-          <cell r="K12" t="str">
+          <cell r="L12" t="str">
             <v>0.018</v>
           </cell>
-          <cell r="L12" t="str">
-            <v>0.022</v>
-          </cell>
           <cell r="M12" t="str">
-            <v>0.011</v>
+            <v>0.054</v>
           </cell>
           <cell r="N12" t="str">
-            <v>0.019</v>
-          </cell>
-          <cell r="O12" t="str">
-            <v>0.036</v>
+            <v>0.041</v>
           </cell>
         </row>
         <row r="13">
@@ -570,46 +546,43 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
+            <v>44.7</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>0.30</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>67.2</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>0.12</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>9.46</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>0.31</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>0.72</v>
+          </cell>
+          <cell r="I13" t="str">
             <v>82.8</v>
           </cell>
-          <cell r="C13" t="str">
-            <v>0.45</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>0.30</v>
-          </cell>
-          <cell r="E13" t="str">
+          <cell r="J13" t="str">
             <v>1.14</v>
           </cell>
-          <cell r="F13" t="str">
-            <v>0.38</v>
-          </cell>
-          <cell r="G13" t="str">
+          <cell r="K13" t="str">
+            <v>0.39</v>
+          </cell>
+          <cell r="L13" t="str">
             <v>1.44</v>
           </cell>
-          <cell r="H13" t="str">
-            <v>0.49</v>
-          </cell>
-          <cell r="I13" t="str">
+          <cell r="M13" t="str">
+            <v>136.6</v>
+          </cell>
+          <cell r="N13" t="str">
             <v>103.9</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>136.6</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>0.67</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>0.092</v>
-          </cell>
-          <cell r="M13" t="str">
-            <v>0.12</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>0.31</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>0.72</v>
           </cell>
         </row>
       </sheetData>
@@ -949,19 +922,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -1007,7 +980,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]mechanism!B5</f>
-        <v>-13.7***</v>
+        <v>7.92***</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]mechanism!C5</f>
@@ -1015,23 +988,23 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]mechanism!D5</f>
-        <v>0.080***</v>
+        <v>9.43***</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>[1]mechanism!E5</f>
-        <v>-0.033</v>
+        <v>-0.070***</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]mechanism!F5</f>
-        <v>-0.18***</v>
+        <v>-3.90***</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>0.063</v>
+        <v>0.0050</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>0.071***</v>
+        <v>0.14***</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1041,31 +1014,31 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]mechanism!B6</f>
-        <v>(1.60)</v>
+        <v>(2.78)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(0.028)</v>
+        <v>(0.026)</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D6</f>
-        <v>(0.026)</v>
+        <v>(2.62)</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]mechanism!E6</f>
-        <v>(0.049)</v>
+        <v>(0.015)</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]mechanism!F6</f>
-        <v>(0.048)</v>
+        <v>(1.26)</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]mechanism!G6</f>
-        <v>(0.053)</v>
+        <v>(0.021)</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(0.027)</v>
+        <v>(0.034)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1074,31 +1047,31 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]mechanism!B8</f>
-        <v>-3.59**</v>
+        <v>-0.97</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.0073</v>
+        <v>-0.010</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D8</f>
-        <v>-0.0084</v>
+        <v>1.40</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]mechanism!E8</f>
-        <v>0.077</v>
+        <v>-0.026*</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]mechanism!F8</f>
-        <v>-0.068</v>
+        <v>-1.75*</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>0.13**</v>
+        <v>0.0035</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-0.011</v>
+        <v>0.049*</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1108,7 +1081,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]mechanism!B9</f>
-        <v>(1.54)</v>
+        <v>(2.20)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C9</f>
@@ -1116,32 +1089,32 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D9</f>
-        <v>(0.022)</v>
+        <v>(2.36)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]mechanism!E9</f>
-        <v>(0.052)</v>
+        <v>(0.013)</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]mechanism!F9</f>
-        <v>(0.041)</v>
+        <v>(1.00)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.064)</v>
+        <v>(0.019)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(0.022)</v>
+        <v>(0.029)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>[1]mechanism!B11</f>
-        <v>4412</v>
+        <v>6304</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>[1]mechanism!C11</f>
@@ -1157,15 +1130,15 @@
       </c>
       <c r="F9" s="8" t="str">
         <f>[1]mechanism!F11</f>
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>[1]mechanism!G11</f>
-        <v>3031</v>
+        <v>6304</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>[1]mechanism!H11</f>
-        <v>6304</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1174,31 +1147,31 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]mechanism!B12</f>
-        <v>0.057</v>
+        <v>0.014</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]mechanism!C12</f>
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]mechanism!D12</f>
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]mechanism!E12</f>
-        <v>0.030</v>
+        <v>0.011</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]mechanism!F12</f>
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.020</v>
+        <v>0.016</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.017</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1208,31 +1181,31 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>[1]mechanism!B13</f>
-        <v>82.8</v>
+        <v>44.7</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>0.45</v>
+        <v>0.30</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>[1]mechanism!D13</f>
-        <v>0.30</v>
+        <v>67.2</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]mechanism!E13</f>
-        <v>1.14</v>
+        <v>0.12</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]mechanism!F13</f>
-        <v>0.38</v>
+        <v>9.46</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>[1]mechanism!G13</f>
-        <v>1.44</v>
+        <v>0.31</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1251,27 +1224,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>[1]mechanism!I2</f>
@@ -1297,10 +1268,7 @@
         <f>[1]mechanism!N2</f>
         <v>(13)</v>
       </c>
-      <c r="H14" s="3" t="str">
-        <f>[1]mechanism!O2</f>
-        <v>(14)</v>
-      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1308,64 +1276,56 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]mechanism!I5</f>
-        <v>-17.8***</v>
+        <v>-13.8***</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>-28.1***</v>
+        <v>-0.031</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]mechanism!K5</f>
-        <v>0.094***</v>
+        <v>-0.19***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]mechanism!L5</f>
-        <v>-0.037***</v>
+        <v>0.062</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]mechanism!M5</f>
-        <v>-0.068***</v>
+        <v>-27.9***</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[1]mechanism!N5</f>
-        <v>0.0054</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>[1]mechanism!O5</f>
-        <v>0.14***</v>
+        <v>-17.9***</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]mechanism!I6</f>
-        <v>(3.88)</v>
+        <v>(1.61)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(4.36)</v>
+        <v>(0.049)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]mechanism!K6</f>
-        <v>(0.026)</v>
+        <v>(0.049)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]mechanism!L6</f>
-        <v>(0.012)</v>
+        <v>(0.053)</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]mechanism!M6</f>
-        <v>(0.014)</v>
+        <v>(4.35)</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>[1]mechanism!N6</f>
-        <v>(0.021)</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f>[1]mechanism!O6</f>
-        <v>(0.033)</v>
+        <v>(3.88)</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1374,64 +1334,56 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>-1.33</v>
+        <v>-3.51**</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>-0.90</v>
+        <v>0.085</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>0.014</v>
+        <v>-0.077*</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>-0.015</v>
+        <v>0.13**</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>[1]mechanism!M8</f>
-        <v>-0.025*</v>
+        <v>-0.18</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]mechanism!N8</f>
-        <v>0.0043</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f>[1]mechanism!O8</f>
-        <v>0.046</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]mechanism!I9</f>
-        <v>(4.19)</v>
+        <v>(1.57)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(4.17)</v>
+        <v>(0.053)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]mechanism!K9</f>
-        <v>(0.023)</v>
+        <v>(0.041)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]mechanism!L9</f>
-        <v>(0.010)</v>
+        <v>(0.063)</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>[1]mechanism!M9</f>
-        <v>(0.013)</v>
+        <v>(4.33)</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]mechanism!N9</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f>[1]mechanism!O9</f>
-        <v>(0.029)</v>
+        <v>(4.19)</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1446,11 +1398,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>[1]mechanism!I11</f>
-        <v>3031</v>
+        <v>4412</v>
       </c>
       <c r="C20" s="8" t="str">
         <f>[1]mechanism!J11</f>
@@ -1458,11 +1410,11 @@
       </c>
       <c r="D20" s="8" t="str">
         <f>[1]mechanism!K11</f>
-        <v>6304</v>
+        <v>2488</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>[1]mechanism!L11</f>
-        <v>2485</v>
+        <v>3031</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>[1]mechanism!M11</f>
@@ -1470,12 +1422,9 @@
       </c>
       <c r="G20" s="8" t="str">
         <f>[1]mechanism!N11</f>
-        <v>6304</v>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f>[1]mechanism!O11</f>
-        <v>2485</v>
-      </c>
+        <v>3031</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1483,65 +1432,58 @@
       </c>
       <c r="B21" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.043</v>
+        <v>0.055</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.066</v>
+        <v>0.022</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]mechanism!L12</f>
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]mechanism!M12</f>
-        <v>0.011</v>
+        <v>0.054</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>[1]mechanism!N12</f>
-        <v>0.019</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f>[1]mechanism!O12</f>
-        <v>0.036</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>103.9</v>
+        <v>82.8</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>136.6</v>
+        <v>1.14</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>[1]mechanism!K13</f>
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]mechanism!L13</f>
-        <v>0.092</v>
+        <v>1.44</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]mechanism!M13</f>
-        <v>0.12</v>
+        <v>136.6</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>[1]mechanism!N13</f>
-        <v>0.31</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f>[1]mechanism!O13</f>
-        <v>0.72</v>
-      </c>
+        <v>103.9</v>
+      </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAEEBE-3972-4721-A527-94B5FEF0344A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F81CD-131E-4020-B630-43AA90756C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22125" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -58,18 +58,12 @@
     <t>Control Mean</t>
   </si>
   <si>
-    <t># of visits $|$ recovery</t>
-  </si>
-  <si>
     <t xml:space="preserve">% of pay $|$ def </t>
   </si>
   <si>
     <t># of visits $|$ def</t>
   </si>
   <si>
-    <t>% of payment</t>
-  </si>
-  <si>
     <t>Days to 1st payment</t>
   </si>
   <si>
@@ -91,10 +85,16 @@
     <t>$\Pr($+ payment &amp; default)</t>
   </si>
   <si>
-    <t>$\Pr($Selling pawn)</t>
-  </si>
-  <si>
     <t>$\Pr($Selling pawn $|$ def)</t>
+  </si>
+  <si>
+    <t>Panel A  : Speed of payment</t>
+  </si>
+  <si>
+    <t>Panel B  : Variables related to default</t>
+  </si>
+  <si>
+    <t>Panel C  : Visit variables</t>
   </si>
 </sst>
 </file>
@@ -118,21 +118,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -168,6 +159,28 @@
       <top style="double">
         <color indexed="64"/>
       </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -179,9 +192,7 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -193,31 +204,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -238,8 +251,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="mechanism"/>
     </sheetNames>
@@ -279,55 +295,37 @@
           <cell r="K2" t="str">
             <v>(10)</v>
           </cell>
-          <cell r="L2" t="str">
-            <v>(11)</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>(12)</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>(13)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>7.92***</v>
+            <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
+            <v>7.70***</v>
+          </cell>
+          <cell r="D5" t="str">
             <v>0.079***</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>9.43***</v>
-          </cell>
           <cell r="E5" t="str">
+            <v>-27.9***</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>-17.9***</v>
+          </cell>
+          <cell r="G5" t="str">
             <v>-0.070***</v>
           </cell>
-          <cell r="F5" t="str">
-            <v>-3.90***</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>0.0050</v>
-          </cell>
           <cell r="H5" t="str">
+            <v>-3.96***</v>
+          </cell>
+          <cell r="I5" t="str">
             <v>0.14***</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>-13.8***</v>
           </cell>
           <cell r="J5" t="str">
             <v>-0.031</v>
           </cell>
           <cell r="K5" t="str">
             <v>-0.19***</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>0.062</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>-27.9***</v>
-          </cell>
-          <cell r="N5" t="str">
-            <v>-17.9***</v>
           </cell>
         </row>
         <row r="6">
@@ -335,84 +333,66 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
+            <v>(1.61)</v>
+          </cell>
+          <cell r="C6" t="str">
             <v>(2.78)</v>
           </cell>
-          <cell r="C6" t="str">
+          <cell r="D6" t="str">
             <v>(0.026)</v>
           </cell>
-          <cell r="D6" t="str">
-            <v>(2.62)</v>
-          </cell>
           <cell r="E6" t="str">
+            <v>(4.35)</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>(3.88)</v>
+          </cell>
+          <cell r="G6" t="str">
             <v>(0.015)</v>
           </cell>
-          <cell r="F6" t="str">
-            <v>(1.26)</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>(0.021)</v>
-          </cell>
           <cell r="H6" t="str">
+            <v>(1.27)</v>
+          </cell>
+          <cell r="I6" t="str">
             <v>(0.034)</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>(1.61)</v>
           </cell>
           <cell r="J6" t="str">
             <v>(0.049)</v>
           </cell>
           <cell r="K6" t="str">
             <v>(0.049)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.053)</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>(4.35)</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>(3.88)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.97</v>
+            <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
+            <v>-0.85</v>
+          </cell>
+          <cell r="D8" t="str">
             <v>-0.010</v>
           </cell>
-          <cell r="D8" t="str">
-            <v>1.40</v>
-          </cell>
           <cell r="E8" t="str">
-            <v>-0.026*</v>
+            <v>-0.18</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-1.75*</v>
+            <v>-1.35</v>
           </cell>
           <cell r="G8" t="str">
-            <v>0.0035</v>
+            <v>-0.028**</v>
           </cell>
           <cell r="H8" t="str">
-            <v>0.049*</v>
+            <v>-2.11**</v>
           </cell>
           <cell r="I8" t="str">
-            <v>-3.51**</v>
+            <v>0.053*</v>
           </cell>
           <cell r="J8" t="str">
             <v>0.085</v>
           </cell>
           <cell r="K8" t="str">
-            <v>-0.077*</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>0.13**</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>-0.18</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>-1.35</v>
+            <v>-0.090**</v>
           </cell>
         </row>
         <row r="9">
@@ -420,48 +400,39 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(2.20)</v>
+            <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
+            <v>(2.19)</v>
+          </cell>
+          <cell r="D9" t="str">
             <v>(0.022)</v>
           </cell>
-          <cell r="D9" t="str">
-            <v>(2.36)</v>
-          </cell>
           <cell r="E9" t="str">
-            <v>(0.013)</v>
+            <v>(4.33)</v>
           </cell>
           <cell r="F9" t="str">
-            <v>(1.00)</v>
+            <v>(4.19)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.019)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="H9" t="str">
+            <v>(1.04)</v>
+          </cell>
+          <cell r="I9" t="str">
             <v>(0.029)</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(1.57)</v>
           </cell>
           <cell r="J9" t="str">
             <v>(0.053)</v>
           </cell>
           <cell r="K9" t="str">
-            <v>(0.041)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.063)</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>(4.33)</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>(4.19)</v>
+            <v>(0.042)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>6304</v>
+            <v>4412</v>
           </cell>
           <cell r="C11" t="str">
             <v>6304</v>
@@ -473,72 +444,54 @@
             <v>6304</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2488</v>
+            <v>3031</v>
           </cell>
           <cell r="G11" t="str">
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2488</v>
+            <v>2486</v>
           </cell>
           <cell r="I11" t="str">
-            <v>4412</v>
+            <v>2486</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>2488</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>3031</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>6304</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>3031</v>
+            <v>2486</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
+            <v>0.055</v>
+          </cell>
+          <cell r="C12" t="str">
             <v>0.014</v>
           </cell>
-          <cell r="C12" t="str">
+          <cell r="D12" t="str">
             <v>0.016</v>
           </cell>
-          <cell r="D12" t="str">
-            <v>0.015</v>
-          </cell>
           <cell r="E12" t="str">
+            <v>0.054</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>0.041</v>
+          </cell>
+          <cell r="G12" t="str">
             <v>0.011</v>
           </cell>
-          <cell r="F12" t="str">
-            <v>0.022</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>0.016</v>
-          </cell>
           <cell r="H12" t="str">
+            <v>0.023</v>
+          </cell>
+          <cell r="I12" t="str">
             <v>0.033</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>0.055</v>
           </cell>
           <cell r="J12" t="str">
             <v>0.022</v>
           </cell>
           <cell r="K12" t="str">
-            <v>0.025</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>0.018</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>0.054</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>0.041</v>
+            <v>0.026</v>
           </cell>
         </row>
         <row r="13">
@@ -546,43 +499,34 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
+            <v>82.8</v>
+          </cell>
+          <cell r="C13" t="str">
             <v>44.7</v>
           </cell>
-          <cell r="C13" t="str">
+          <cell r="D13" t="str">
             <v>0.30</v>
           </cell>
-          <cell r="D13" t="str">
-            <v>67.2</v>
-          </cell>
           <cell r="E13" t="str">
+            <v>136.6</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>103.9</v>
+          </cell>
+          <cell r="G13" t="str">
             <v>0.12</v>
           </cell>
-          <cell r="F13" t="str">
-            <v>9.46</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>0.31</v>
-          </cell>
           <cell r="H13" t="str">
-            <v>0.72</v>
+            <v>9.59</v>
           </cell>
           <cell r="I13" t="str">
-            <v>82.8</v>
+            <v>0.71</v>
           </cell>
           <cell r="J13" t="str">
             <v>1.14</v>
           </cell>
           <cell r="K13" t="str">
             <v>0.39</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>1.44</v>
-          </cell>
-          <cell r="M13" t="str">
-            <v>136.6</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>103.9</v>
           </cell>
         </row>
       </sheetData>
@@ -880,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,605 +832,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B463C252-3CBC-4DB9-9E7A-4F7C1165B369}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H22"/>
+      <selection activeCell="G24" sqref="A2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="str">
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="str">
         <f>[1]mechanism!A2</f>
         <v/>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B4" s="8" t="str">
         <f>[1]mechanism!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C4" s="8" t="str">
         <f>[1]mechanism!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D4" s="8" t="str">
         <f>[1]mechanism!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="str">
         <f>[1]mechanism!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="G4" s="8" t="str">
         <f>[1]mechanism!F2</f>
         <v>(5)</v>
       </c>
-      <c r="G3" s="13" t="str">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>[1]mechanism!B5</f>
+        <v>-13.8***</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>[1]mechanism!C5</f>
+        <v>7.70***</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>[1]mechanism!D5</f>
+        <v>0.079***</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>[1]mechanism!E5</f>
+        <v>-27.9***</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>[1]mechanism!F5</f>
+        <v>-17.9***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>[1]mechanism!A6</f>
+        <v/>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>[1]mechanism!B6</f>
+        <v>(1.61)</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>[1]mechanism!C6</f>
+        <v>(2.78)</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>[1]mechanism!D6</f>
+        <v>(0.026)</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>[1]mechanism!E6</f>
+        <v>(4.35)</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>[1]mechanism!F6</f>
+        <v>(3.88)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]mechanism!B8</f>
+        <v>-3.51**</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>[1]mechanism!C8</f>
+        <v>-0.85</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>[1]mechanism!D8</f>
+        <v>-0.010</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>[1]mechanism!E8</f>
+        <v>-0.18</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>[1]mechanism!F8</f>
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>[1]mechanism!A9</f>
+        <v/>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>[1]mechanism!B9</f>
+        <v>(1.57)</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>[1]mechanism!C9</f>
+        <v>(2.19)</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>[1]mechanism!D9</f>
+        <v>(0.022)</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>[1]mechanism!E9</f>
+        <v>(4.33)</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>[1]mechanism!F9</f>
+        <v>(4.19)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>[1]mechanism!B11</f>
+        <v>4412</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>[1]mechanism!C11</f>
+        <v>6304</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>[1]mechanism!D11</f>
+        <v>6304</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="str">
+        <f>[1]mechanism!E11</f>
+        <v>6304</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>[1]mechanism!F11</f>
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>[1]mechanism!B12</f>
+        <v>0.055</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>[1]mechanism!C12</f>
+        <v>0.014</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>[1]mechanism!D12</f>
+        <v>0.016</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>[1]mechanism!E12</f>
+        <v>0.054</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>[1]mechanism!F12</f>
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="str">
+        <f>[1]mechanism!A13</f>
+        <v>Control Mean</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>[1]mechanism!B13</f>
+        <v>82.8</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>[1]mechanism!C13</f>
+        <v>44.7</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>[1]mechanism!D13</f>
+        <v>0.30</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="str">
+        <f>[1]mechanism!E13</f>
+        <v>136.6</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>[1]mechanism!F13</f>
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="str">
         <f>[1]mechanism!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="C16" s="8" t="str">
         <f>[1]mechanism!H2</f>
         <v>(7)</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D16" s="8" t="str">
+        <f>[1]mechanism!I2</f>
+        <v>(8)</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="str">
+        <f>[1]mechanism!J2</f>
+        <v>(9)</v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f>[1]mechanism!K2</f>
+        <v>(10)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f>[1]mechanism!B5</f>
-        <v>7.92***</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>[1]mechanism!C5</f>
-        <v>0.079***</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>[1]mechanism!D5</f>
-        <v>9.43***</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>[1]mechanism!E5</f>
+      <c r="B17" s="1" t="str">
+        <f>[1]mechanism!G5</f>
         <v>-0.070***</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f>[1]mechanism!F5</f>
-        <v>-3.90***</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>[1]mechanism!G5</f>
-        <v>0.0050</v>
-      </c>
-      <c r="H4" s="1" t="str">
+      <c r="C17" s="1" t="str">
         <f>[1]mechanism!H5</f>
+        <v>-3.96***</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>[1]mechanism!I5</f>
         <v>0.14***</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f>[1]mechanism!A6</f>
-        <v/>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>[1]mechanism!B6</f>
-        <v>(2.78)</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>[1]mechanism!C6</f>
-        <v>(0.026)</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>[1]mechanism!D6</f>
-        <v>(2.62)</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>[1]mechanism!E6</f>
+      <c r="F17" s="1" t="str">
+        <f>[1]mechanism!J5</f>
+        <v>-0.031</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>[1]mechanism!K5</f>
+        <v>-0.19***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>[1]mechanism!G6</f>
         <v>(0.015)</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f>[1]mechanism!F6</f>
-        <v>(1.26)</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>[1]mechanism!G6</f>
-        <v>(0.021)</v>
-      </c>
-      <c r="H5" s="1" t="str">
+      <c r="C18" s="1" t="str">
         <f>[1]mechanism!H6</f>
+        <v>(1.27)</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>[1]mechanism!I6</f>
         <v>(0.034)</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F18" s="1" t="str">
+        <f>[1]mechanism!J6</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>[1]mechanism!K6</f>
+        <v>(0.049)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f>[1]mechanism!B8</f>
-        <v>-0.97</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>[1]mechanism!C8</f>
-        <v>-0.010</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>[1]mechanism!D8</f>
-        <v>1.40</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>[1]mechanism!E8</f>
-        <v>-0.026*</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>[1]mechanism!F8</f>
-        <v>-1.75*</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>0.0035</v>
-      </c>
-      <c r="H6" s="1" t="str">
+        <v>-0.028**</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>0.049*</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f>[1]mechanism!A9</f>
-        <v/>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f>[1]mechanism!B9</f>
-        <v>(2.20)</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>[1]mechanism!C9</f>
-        <v>(0.022)</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>[1]mechanism!D9</f>
-        <v>(2.36)</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>[1]mechanism!E9</f>
-        <v>(0.013)</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>[1]mechanism!F9</f>
-        <v>(1.00)</v>
-      </c>
-      <c r="G7" s="1" t="str">
+        <v>-2.11**</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>[1]mechanism!I8</f>
+        <v>0.053*</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>[1]mechanism!J8</f>
+        <v>0.085</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>[1]mechanism!K8</f>
+        <v>-0.090**</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="H7" s="1" t="str">
+        <v>(0.014)</v>
+      </c>
+      <c r="C20" s="1" t="str">
         <f>[1]mechanism!H9</f>
+        <v>(1.04)</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>[1]mechanism!I9</f>
         <v>(0.029)</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="F20" s="1" t="str">
+        <f>[1]mechanism!J9</f>
+        <v>(0.053)</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>[1]mechanism!K9</f>
+        <v>(0.042)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="str">
-        <f>[1]mechanism!B11</f>
-        <v>6304</v>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f>[1]mechanism!C11</f>
-        <v>6304</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>[1]mechanism!D11</f>
-        <v>6304</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f>[1]mechanism!E11</f>
-        <v>6304</v>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>[1]mechanism!F11</f>
-        <v>2488</v>
-      </c>
-      <c r="G9" s="8" t="str">
+      <c r="B22" s="1" t="str">
         <f>[1]mechanism!G11</f>
         <v>6304</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="C22" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>[1]mechanism!B12</f>
-        <v>0.014</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>[1]mechanism!C12</f>
-        <v>0.016</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>[1]mechanism!D12</f>
-        <v>0.015</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>[1]mechanism!E12</f>
-        <v>0.011</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>[1]mechanism!F12</f>
-        <v>0.022</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>[1]mechanism!G12</f>
-        <v>0.016</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>[1]mechanism!H12</f>
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="str">
-        <f>[1]mechanism!A13</f>
-        <v>Control Mean</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f>[1]mechanism!B13</f>
-        <v>44.7</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>[1]mechanism!C13</f>
-        <v>0.30</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f>[1]mechanism!D13</f>
-        <v>67.2</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f>[1]mechanism!E13</f>
-        <v>0.12</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>[1]mechanism!F13</f>
-        <v>9.46</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f>[1]mechanism!G13</f>
-        <v>0.31</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f>[1]mechanism!H13</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f>[1]mechanism!I2</f>
-        <v>(8)</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>[1]mechanism!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f>[1]mechanism!K2</f>
-        <v>(10)</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f>[1]mechanism!L2</f>
-        <v>(11)</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f>[1]mechanism!M2</f>
-        <v>(12)</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f>[1]mechanism!N2</f>
-        <v>(13)</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>[1]mechanism!I5</f>
-        <v>-13.8***</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>[1]mechanism!J5</f>
-        <v>-0.031</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>[1]mechanism!K5</f>
-        <v>-0.19***</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>[1]mechanism!L5</f>
-        <v>0.062</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>[1]mechanism!M5</f>
-        <v>-27.9***</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>[1]mechanism!N5</f>
-        <v>-17.9***</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f>[1]mechanism!I6</f>
-        <v>(1.61)</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>[1]mechanism!J6</f>
-        <v>(0.049)</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>[1]mechanism!K6</f>
-        <v>(0.049)</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>[1]mechanism!L6</f>
-        <v>(0.053)</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f>[1]mechanism!M6</f>
-        <v>(4.35)</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>[1]mechanism!N6</f>
-        <v>(3.88)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>[1]mechanism!I8</f>
-        <v>-3.51**</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>[1]mechanism!J8</f>
-        <v>0.085</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>[1]mechanism!K8</f>
-        <v>-0.077*</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>[1]mechanism!L8</f>
-        <v>0.13**</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>[1]mechanism!M8</f>
-        <v>-0.18</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>[1]mechanism!N8</f>
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f>[1]mechanism!I9</f>
-        <v>(1.57)</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>[1]mechanism!J9</f>
-        <v>(0.053)</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>[1]mechanism!K9</f>
-        <v>(0.041)</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>[1]mechanism!L9</f>
-        <v>(0.063)</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>[1]mechanism!M9</f>
-        <v>(4.33)</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>[1]mechanism!N9</f>
-        <v>(4.19)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="str">
+        <v>2486</v>
+      </c>
+      <c r="D22" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>4412</v>
-      </c>
-      <c r="C20" s="8" t="str">
+        <v>2486</v>
+      </c>
+      <c r="F22" s="5" t="str">
         <f>[1]mechanism!J11</f>
         <v>6304</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="G22" s="1" t="str">
         <f>[1]mechanism!K11</f>
-        <v>2488</v>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f>[1]mechanism!L11</f>
-        <v>3031</v>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f>[1]mechanism!M11</f>
-        <v>6304</v>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f>[1]mechanism!N11</f>
-        <v>3031</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B23" s="1" t="str">
+        <f>[1]mechanism!G12</f>
+        <v>0.011</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>[1]mechanism!H12</f>
+        <v>0.023</v>
+      </c>
+      <c r="D23" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.055</v>
-      </c>
-      <c r="C21" s="1" t="str">
+        <v>0.033</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f>[1]mechanism!J12</f>
         <v>0.022</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="G23" s="1" t="str">
         <f>[1]mechanism!K12</f>
-        <v>0.025</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f>[1]mechanism!L12</f>
-        <v>0.018</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f>[1]mechanism!M12</f>
-        <v>0.054</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>[1]mechanism!N12</f>
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B24" s="3" t="str">
+        <f>[1]mechanism!G13</f>
+        <v>0.12</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f>[1]mechanism!H13</f>
+        <v>9.59</v>
+      </c>
+      <c r="D24" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>82.8</v>
-      </c>
-      <c r="C22" s="3" t="str">
+        <v>0.71</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="str">
         <f>[1]mechanism!J13</f>
         <v>1.14</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="G24" s="3" t="str">
         <f>[1]mechanism!K13</f>
         <v>0.39</v>
       </c>
-      <c r="E22" s="3" t="str">
-        <f>[1]mechanism!L13</f>
-        <v>1.44</v>
-      </c>
-      <c r="F22" s="3" t="str">
-        <f>[1]mechanism!M13</f>
-        <v>136.6</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f>[1]mechanism!N13</f>
-        <v>103.9</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F81CD-131E-4020-B630-43AA90756C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65A7F7-E878-4555-A882-8C4EE2740528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>R-squared</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Panel C  : Visit variables</t>
+  </si>
+  <si>
+    <t>$\Pr($Selling pawn)</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,13 +301,16 @@
           <cell r="K2" t="str">
             <v>(10)</v>
           </cell>
+          <cell r="L2" t="str">
+            <v>(11)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.70***</v>
+            <v>7.94***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -313,18 +322,21 @@
             <v>-17.9***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.070***</v>
+            <v>-0.069***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.96***</v>
+            <v>-3.93***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
           </cell>
           <cell r="J5" t="str">
+            <v>0.0050</v>
+          </cell>
+          <cell r="K5" t="str">
             <v>-0.031</v>
           </cell>
-          <cell r="K5" t="str">
+          <cell r="L5" t="str">
             <v>-0.19***</v>
           </cell>
         </row>
@@ -336,7 +348,7 @@
             <v>(1.61)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.78)</v>
+            <v>(2.77)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.026)</v>
@@ -357,9 +369,12 @@
             <v>(0.034)</v>
           </cell>
           <cell r="J6" t="str">
+            <v>(0.021)</v>
+          </cell>
+          <cell r="K6" t="str">
             <v>(0.049)</v>
           </cell>
-          <cell r="K6" t="str">
+          <cell r="L6" t="str">
             <v>(0.049)</v>
           </cell>
         </row>
@@ -368,7 +383,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.85</v>
+            <v>-0.78</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -380,19 +395,22 @@
             <v>-1.35</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.028**</v>
+            <v>-0.027*</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-2.11**</v>
+            <v>-1.84*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.053*</v>
+            <v>0.050*</v>
           </cell>
           <cell r="J8" t="str">
+            <v>0.0035</v>
+          </cell>
+          <cell r="K8" t="str">
             <v>0.085</v>
           </cell>
-          <cell r="K8" t="str">
-            <v>-0.090**</v>
+          <cell r="L8" t="str">
+            <v>-0.082*</v>
           </cell>
         </row>
         <row r="9">
@@ -403,7 +421,7 @@
             <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(2.19)</v>
+            <v>(2.20)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.022)</v>
@@ -424,9 +442,12 @@
             <v>(0.029)</v>
           </cell>
           <cell r="J9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="K9" t="str">
             <v>(0.053)</v>
           </cell>
-          <cell r="K9" t="str">
+          <cell r="L9" t="str">
             <v>(0.042)</v>
           </cell>
         </row>
@@ -450,16 +471,19 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2486</v>
+            <v>2487</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2486</v>
+            <v>2487</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
           </cell>
           <cell r="K11" t="str">
-            <v>2486</v>
+            <v>6304</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>2487</v>
           </cell>
         </row>
         <row r="12">
@@ -488,9 +512,12 @@
             <v>0.033</v>
           </cell>
           <cell r="J12" t="str">
+            <v>0.016</v>
+          </cell>
+          <cell r="K12" t="str">
             <v>0.022</v>
           </cell>
-          <cell r="K12" t="str">
+          <cell r="L12" t="str">
             <v>0.026</v>
           </cell>
         </row>
@@ -517,15 +544,18 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.59</v>
+            <v>9.51</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.71</v>
+            <v>0.72</v>
           </cell>
           <cell r="J13" t="str">
+            <v>0.31</v>
+          </cell>
+          <cell r="K13" t="str">
             <v>1.14</v>
           </cell>
-          <cell r="K13" t="str">
+          <cell r="L13" t="str">
             <v>0.39</v>
           </cell>
         </row>
@@ -824,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,35 +862,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B463C252-3CBC-4DB9-9E7A-4F7C1165B369}">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="A2:G24"/>
+      <selection activeCell="H24" sqref="A2:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -871,14 +903,15 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="str">
         <f>[1]mechanism!A2</f>
         <v/>
@@ -895,8 +928,7 @@
         <f>[1]mechanism!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="str">
+      <c r="E4" s="8" t="str">
         <f>[1]mechanism!E2</f>
         <v>(4)</v>
       </c>
@@ -904,8 +936,9 @@
         <f>[1]mechanism!F2</f>
         <v>(5)</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -915,13 +948,13 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.70***</v>
+        <v>7.94***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D5</f>
         <v>0.079***</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <f>[1]mechanism!E5</f>
         <v>-27.9***</v>
       </c>
@@ -930,7 +963,7 @@
         <v>-17.9***</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>[1]mechanism!A6</f>
         <v/>
@@ -941,13 +974,13 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.78)</v>
+        <v>(2.77)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D6</f>
         <v>(0.026)</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="E6" s="1" t="str">
         <f>[1]mechanism!E6</f>
         <v>(4.35)</v>
       </c>
@@ -956,7 +989,7 @@
         <v>(3.88)</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -966,13 +999,13 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.85</v>
+        <v>-0.78</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D8</f>
         <v>-0.010</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="E7" s="1" t="str">
         <f>[1]mechanism!E8</f>
         <v>-0.18</v>
       </c>
@@ -981,7 +1014,7 @@
         <v>-1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>[1]mechanism!A9</f>
         <v/>
@@ -992,13 +1025,13 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.19)</v>
+        <v>(2.20)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]mechanism!D9</f>
         <v>(0.022)</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="E8" s="1" t="str">
         <f>[1]mechanism!E9</f>
         <v>(4.33)</v>
       </c>
@@ -1007,7 +1040,10 @@
         <v>(4.19)</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1059,7 @@
         <f>[1]mechanism!D11</f>
         <v>6304</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="str">
+      <c r="E10" s="5" t="str">
         <f>[1]mechanism!E11</f>
         <v>6304</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1084,7 @@
         <f>[1]mechanism!D12</f>
         <v>0.016</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="E11" s="1" t="str">
         <f>[1]mechanism!E12</f>
         <v>0.054</v>
       </c>
@@ -1058,7 +1093,7 @@
         <v>0.041</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="str">
         <f>[1]mechanism!A13</f>
         <v>Control Mean</v>
@@ -1075,8 +1110,7 @@
         <f>[1]mechanism!D13</f>
         <v>0.30</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="str">
+      <c r="E12" s="3" t="str">
         <f>[1]mechanism!E13</f>
         <v>136.6</v>
       </c>
@@ -1084,8 +1118,9 @@
         <f>[1]mechanism!F13</f>
         <v>103.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1094,20 +1129,21 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
         <v>14</v>
@@ -1118,15 +1154,18 @@
       <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
@@ -1142,42 +1181,50 @@
         <f>[1]mechanism!I2</f>
         <v>(8)</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="str">
+      <c r="E16" s="3" t="str">
         <f>[1]mechanism!J2</f>
         <v>(9)</v>
       </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="8" t="str">
         <f>[1]mechanism!K2</f>
         <v>(10)</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="8" t="str">
+        <f>[1]mechanism!L2</f>
+        <v>(11)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.070***</v>
+        <v>-0.069***</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.96***</v>
+        <v>-3.93***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!I5</f>
         <v>0.14***</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="E17" s="1" t="str">
         <f>[1]mechanism!J5</f>
-        <v>-0.031</v>
+        <v>0.0050</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]mechanism!K5</f>
+        <v>-0.031</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>[1]mechanism!L5</f>
         <v>-0.19***</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1193,41 +1240,49 @@
         <f>[1]mechanism!I6</f>
         <v>(0.034)</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="E18" s="1" t="str">
         <f>[1]mechanism!J6</f>
-        <v>(0.049)</v>
+        <v>(0.021)</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]mechanism!K6</f>
         <v>(0.049)</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="str">
+        <f>[1]mechanism!L6</f>
+        <v>(0.049)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.028**</v>
+        <v>-0.027*</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-2.11**</v>
+        <v>-1.84*</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.053*</v>
-      </c>
-      <c r="F19" s="1" t="str">
+        <v>0.050*</v>
+      </c>
+      <c r="E19" s="1" t="str">
         <f>[1]mechanism!J8</f>
-        <v>0.085</v>
+        <v>0.0035</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>[1]mechanism!K8</f>
-        <v>-0.090**</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.085</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>[1]mechanism!L8</f>
+        <v>-0.082*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1243,25 +1298,29 @@
         <f>[1]mechanism!I9</f>
         <v>(0.029)</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="E20" s="1" t="str">
         <f>[1]mechanism!J9</f>
-        <v>(0.053)</v>
+        <v>(0.019)</v>
       </c>
       <c r="G20" s="1" t="str">
         <f>[1]mechanism!K9</f>
+        <v>(0.053)</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>[1]mechanism!L9</f>
         <v>(0.042)</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1271,22 +1330,26 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2486</v>
-      </c>
-      <c r="F22" s="5" t="str">
+        <v>2487</v>
+      </c>
+      <c r="E22" s="5" t="str">
         <f>[1]mechanism!J11</f>
         <v>6304</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>[1]mechanism!K11</f>
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6304</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>[1]mechanism!L11</f>
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1302,16 +1365,20 @@
         <f>[1]mechanism!I12</f>
         <v>0.033</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="E23" s="1" t="str">
         <f>[1]mechanism!J12</f>
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>[1]mechanism!K12</f>
+        <v>0.022</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>[1]mechanism!L12</f>
         <v>0.026</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1321,30 +1388,34 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.59</v>
+        <v>9.51</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.71</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="str">
+        <v>0.72</v>
+      </c>
+      <c r="E24" s="3" t="str">
         <f>[1]mechanism!J13</f>
-        <v>1.14</v>
-      </c>
+        <v>0.31</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3" t="str">
         <f>[1]mechanism!K13</f>
+        <v>1.14</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f>[1]mechanism!L13</f>
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E65A7F7-E878-4555-A882-8C4EE2740528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C82B-4262-469A-9016-4465AF904D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
@@ -310,7 +310,7 @@
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.94***</v>
+            <v>7.85***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -322,10 +322,10 @@
             <v>-17.9***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.069***</v>
+            <v>-0.070***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.93***</v>
+            <v>-3.97***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
@@ -383,7 +383,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.78</v>
+            <v>-0.85</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -395,13 +395,13 @@
             <v>-1.35</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.027*</v>
+            <v>-0.027**</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.84*</v>
+            <v>-1.89*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.050*</v>
+            <v>0.051*</v>
           </cell>
           <cell r="J8" t="str">
             <v>0.0035</v>
@@ -410,7 +410,7 @@
             <v>0.085</v>
           </cell>
           <cell r="L8" t="str">
-            <v>-0.082*</v>
+            <v>-0.081**</v>
           </cell>
         </row>
         <row r="9">
@@ -421,7 +421,7 @@
             <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(2.20)</v>
+            <v>(2.18)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.022)</v>
@@ -433,10 +433,10 @@
             <v>(4.19)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.014)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.04)</v>
+            <v>(1.00)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.029)</v>
@@ -448,7 +448,7 @@
             <v>(0.053)</v>
           </cell>
           <cell r="L9" t="str">
-            <v>(0.042)</v>
+            <v>(0.041)</v>
           </cell>
         </row>
         <row r="11">
@@ -471,10 +471,10 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2487</v>
+            <v>2488</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2487</v>
+            <v>2488</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
@@ -483,7 +483,7 @@
             <v>6304</v>
           </cell>
           <cell r="L11" t="str">
-            <v>2487</v>
+            <v>2488</v>
           </cell>
         </row>
         <row r="12">
@@ -544,10 +544,10 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.51</v>
+            <v>9.55</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.72</v>
+            <v>0.71</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -948,7 +948,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.94***</v>
+        <v>7.85***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D5</f>
@@ -999,7 +999,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.78</v>
+        <v>-0.85</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D8</f>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.20)</v>
+        <v>(2.18)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]mechanism!D9</f>
@@ -1201,11 +1201,11 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.069***</v>
+        <v>-0.070***</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.93***</v>
+        <v>-3.97***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!I5</f>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.027*</v>
+        <v>-0.027**</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-1.84*</v>
+        <v>-1.89*</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.050*</v>
+        <v>0.051*</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]mechanism!J8</f>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H19" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>-0.082*</v>
+        <v>-0.081**</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B20" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.014)</v>
+        <v>(0.013)</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.04)</v>
+        <v>(1.00)</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]mechanism!I9</f>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H20" s="1" t="str">
         <f>[1]mechanism!L9</f>
-        <v>(0.042)</v>
+        <v>(0.041)</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]mechanism!J11</f>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H22" s="1" t="str">
         <f>[1]mechanism!L11</f>
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.51</v>
+        <v>9.55</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]mechanism!J13</f>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C82B-4262-469A-9016-4465AF904D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B827E9-CD7D-4C2A-B52D-B00D87D95F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-20535" yWindow="-14040" windowWidth="14400" windowHeight="8175" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.85***</v>
+            <v>7.69***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -325,7 +325,7 @@
             <v>-0.070***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.97***</v>
+            <v>-3.89***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
@@ -348,7 +348,7 @@
             <v>(1.61)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.77)</v>
+            <v>(2.76)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.026)</v>
@@ -383,7 +383,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.85</v>
+            <v>-1.11</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -395,13 +395,13 @@
             <v>-1.35</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.027**</v>
+            <v>-0.026*</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.89*</v>
+            <v>-1.77*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.051*</v>
+            <v>0.049*</v>
           </cell>
           <cell r="J8" t="str">
             <v>0.0035</v>
@@ -410,7 +410,7 @@
             <v>0.085</v>
           </cell>
           <cell r="L8" t="str">
-            <v>-0.081**</v>
+            <v>-0.078*</v>
           </cell>
         </row>
         <row r="9">
@@ -421,7 +421,7 @@
             <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(2.18)</v>
+            <v>(2.19)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.022)</v>
@@ -433,10 +433,10 @@
             <v>(4.19)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(0.013)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.00)</v>
+            <v>(1.01)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.029)</v>
@@ -471,10 +471,10 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2488</v>
+            <v>2487</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2488</v>
+            <v>2487</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
@@ -483,7 +483,7 @@
             <v>6304</v>
           </cell>
           <cell r="L11" t="str">
-            <v>2488</v>
+            <v>2487</v>
           </cell>
         </row>
         <row r="12">
@@ -503,10 +503,10 @@
             <v>0.041</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.011</v>
+            <v>0.010</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.023</v>
+            <v>0.021</v>
           </cell>
           <cell r="I12" t="str">
             <v>0.033</v>
@@ -518,7 +518,7 @@
             <v>0.022</v>
           </cell>
           <cell r="L12" t="str">
-            <v>0.026</v>
+            <v>0.025</v>
           </cell>
         </row>
         <row r="13">
@@ -529,7 +529,7 @@
             <v>82.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>44.7</v>
+            <v>44.8</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.30</v>
@@ -544,10 +544,10 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.55</v>
+            <v>9.47</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.71</v>
+            <v>0.72</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -948,7 +948,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.85***</v>
+        <v>7.69***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D5</f>
@@ -974,7 +974,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.77)</v>
+        <v>(2.76)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D6</f>
@@ -999,7 +999,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-0.85</v>
+        <v>-1.11</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D8</f>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.18)</v>
+        <v>(2.19)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]mechanism!D9</f>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>[1]mechanism!D13</f>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.97***</v>
+        <v>-3.89***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!I5</f>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.027**</v>
+        <v>-0.026*</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-1.89*</v>
+        <v>-1.77*</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.051*</v>
+        <v>0.049*</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]mechanism!J8</f>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H19" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>-0.081**</v>
+        <v>-0.078*</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="B20" s="1" t="str">
         <f>[1]mechanism!G9</f>
-        <v>(0.013)</v>
+        <v>(0.014)</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.00)</v>
+        <v>(1.01)</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]mechanism!I9</f>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]mechanism!J11</f>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H22" s="1" t="str">
         <f>[1]mechanism!L11</f>
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1355,11 +1355,11 @@
       </c>
       <c r="B23" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.011</v>
+        <v>0.010</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>[1]mechanism!I12</f>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="H23" s="1" t="str">
         <f>[1]mechanism!L12</f>
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.55</v>
+        <v>9.47</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]mechanism!J13</f>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B827E9-CD7D-4C2A-B52D-B00D87D95F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C445D-AE26-46B6-A2CA-FA5C81755561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20535" yWindow="-14040" windowWidth="14400" windowHeight="8175" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-19455" yWindow="-12960" windowWidth="21600" windowHeight="11235" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
             <v>-13.8***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>7.69***</v>
+            <v>9.76***</v>
           </cell>
           <cell r="D5" t="str">
             <v>0.079***</v>
@@ -322,10 +322,10 @@
             <v>-17.9***</v>
           </cell>
           <cell r="G5" t="str">
-            <v>-0.070***</v>
+            <v>-0.071***</v>
           </cell>
           <cell r="H5" t="str">
-            <v>-3.89***</v>
+            <v>-4.12***</v>
           </cell>
           <cell r="I5" t="str">
             <v>0.14***</v>
@@ -337,7 +337,7 @@
             <v>-0.031</v>
           </cell>
           <cell r="L5" t="str">
-            <v>-0.19***</v>
+            <v>-0.20***</v>
           </cell>
         </row>
         <row r="6">
@@ -348,7 +348,7 @@
             <v>(1.61)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(2.76)</v>
+            <v>(2.74)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.026)</v>
@@ -363,7 +363,7 @@
             <v>(0.015)</v>
           </cell>
           <cell r="H6" t="str">
-            <v>(1.27)</v>
+            <v>(1.28)</v>
           </cell>
           <cell r="I6" t="str">
             <v>(0.034)</v>
@@ -375,7 +375,7 @@
             <v>(0.049)</v>
           </cell>
           <cell r="L6" t="str">
-            <v>(0.049)</v>
+            <v>(0.050)</v>
           </cell>
         </row>
         <row r="8">
@@ -383,7 +383,7 @@
             <v>-3.51**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-1.11</v>
+            <v>-0.58</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.010</v>
@@ -395,13 +395,13 @@
             <v>-1.35</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.026*</v>
+            <v>-0.027**</v>
           </cell>
           <cell r="H8" t="str">
-            <v>-1.77*</v>
+            <v>-1.82*</v>
           </cell>
           <cell r="I8" t="str">
-            <v>0.049*</v>
+            <v>0.050*</v>
           </cell>
           <cell r="J8" t="str">
             <v>0.0035</v>
@@ -410,7 +410,7 @@
             <v>0.085</v>
           </cell>
           <cell r="L8" t="str">
-            <v>-0.078*</v>
+            <v>-0.079*</v>
           </cell>
         </row>
         <row r="9">
@@ -421,7 +421,7 @@
             <v>(1.57)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(2.19)</v>
+            <v>(2.23)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.022)</v>
@@ -436,7 +436,7 @@
             <v>(0.014)</v>
           </cell>
           <cell r="H9" t="str">
-            <v>(1.01)</v>
+            <v>(1.05)</v>
           </cell>
           <cell r="I9" t="str">
             <v>(0.029)</v>
@@ -448,7 +448,7 @@
             <v>(0.053)</v>
           </cell>
           <cell r="L9" t="str">
-            <v>(0.041)</v>
+            <v>(0.043)</v>
           </cell>
         </row>
         <row r="11">
@@ -471,10 +471,10 @@
             <v>6304</v>
           </cell>
           <cell r="H11" t="str">
-            <v>2487</v>
+            <v>2492</v>
           </cell>
           <cell r="I11" t="str">
-            <v>2487</v>
+            <v>2492</v>
           </cell>
           <cell r="J11" t="str">
             <v>6304</v>
@@ -483,7 +483,7 @@
             <v>6304</v>
           </cell>
           <cell r="L11" t="str">
-            <v>2487</v>
+            <v>2492</v>
           </cell>
         </row>
         <row r="12">
@@ -491,7 +491,7 @@
             <v>0.055</v>
           </cell>
           <cell r="C12" t="str">
-            <v>0.014</v>
+            <v>0.017</v>
           </cell>
           <cell r="D12" t="str">
             <v>0.016</v>
@@ -503,13 +503,13 @@
             <v>0.041</v>
           </cell>
           <cell r="G12" t="str">
-            <v>0.010</v>
+            <v>0.011</v>
           </cell>
           <cell r="H12" t="str">
-            <v>0.021</v>
+            <v>0.024</v>
           </cell>
           <cell r="I12" t="str">
-            <v>0.033</v>
+            <v>0.034</v>
           </cell>
           <cell r="J12" t="str">
             <v>0.016</v>
@@ -518,7 +518,7 @@
             <v>0.022</v>
           </cell>
           <cell r="L12" t="str">
-            <v>0.025</v>
+            <v>0.028</v>
           </cell>
         </row>
         <row r="13">
@@ -529,7 +529,7 @@
             <v>82.8</v>
           </cell>
           <cell r="C13" t="str">
-            <v>44.8</v>
+            <v>45.8</v>
           </cell>
           <cell r="D13" t="str">
             <v>0.30</v>
@@ -544,10 +544,10 @@
             <v>0.12</v>
           </cell>
           <cell r="H13" t="str">
-            <v>9.47</v>
+            <v>9.68</v>
           </cell>
           <cell r="I13" t="str">
-            <v>0.72</v>
+            <v>0.71</v>
           </cell>
           <cell r="J13" t="str">
             <v>0.31</v>
@@ -948,7 +948,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism!C5</f>
-        <v>7.69***</v>
+        <v>9.76***</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism!D5</f>
@@ -974,7 +974,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism!C6</f>
-        <v>(2.76)</v>
+        <v>(2.74)</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism!D6</f>
@@ -999,7 +999,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism!C8</f>
-        <v>-1.11</v>
+        <v>-0.58</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]mechanism!D8</f>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]mechanism!C9</f>
-        <v>(2.19)</v>
+        <v>(2.23)</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]mechanism!D9</f>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]mechanism!C12</f>
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]mechanism!D12</f>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]mechanism!C13</f>
-        <v>44.8</v>
+        <v>45.8</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>[1]mechanism!D13</f>
@@ -1201,11 +1201,11 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!G5</f>
-        <v>-0.070***</v>
+        <v>-0.071***</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism!H5</f>
-        <v>-3.89***</v>
+        <v>-4.12***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism!I5</f>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H17" s="1" t="str">
         <f>[1]mechanism!L5</f>
-        <v>-0.19***</v>
+        <v>-0.20***</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]mechanism!H6</f>
-        <v>(1.27)</v>
+        <v>(1.28)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]mechanism!I6</f>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H18" s="1" t="str">
         <f>[1]mechanism!L6</f>
-        <v>(0.049)</v>
+        <v>(0.050)</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1259,15 +1259,15 @@
       </c>
       <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
-        <v>-0.026*</v>
+        <v>-0.027**</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]mechanism!H8</f>
-        <v>-1.77*</v>
+        <v>-1.82*</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]mechanism!I8</f>
-        <v>0.049*</v>
+        <v>0.050*</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]mechanism!J8</f>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H19" s="1" t="str">
         <f>[1]mechanism!L8</f>
-        <v>-0.078*</v>
+        <v>-0.079*</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]mechanism!H9</f>
-        <v>(1.01)</v>
+        <v>(1.05)</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]mechanism!I9</f>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H20" s="1" t="str">
         <f>[1]mechanism!L9</f>
-        <v>(0.041)</v>
+        <v>(0.043)</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]mechanism!H11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]mechanism!I11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>[1]mechanism!J11</f>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="H22" s="1" t="str">
         <f>[1]mechanism!L11</f>
-        <v>2487</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1355,15 +1355,15 @@
       </c>
       <c r="B23" s="1" t="str">
         <f>[1]mechanism!G12</f>
-        <v>0.010</v>
+        <v>0.011</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>[1]mechanism!H12</f>
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>[1]mechanism!I12</f>
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>[1]mechanism!J12</f>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="H23" s="1" t="str">
         <f>[1]mechanism!L12</f>
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]mechanism!H13</f>
-        <v>9.47</v>
+        <v>9.68</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>[1]mechanism!I13</f>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]mechanism!J13</f>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C445D-AE26-46B6-A2CA-FA5C81755561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E136E-AEC8-424A-B121-6FB84068A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19455" yWindow="-12960" windowWidth="21600" windowHeight="11235" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>

--- a/Tables/mechanism.xlsx
+++ b/Tables/mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E136E-AEC8-424A-B121-6FB84068A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EECD295-5062-4A1F-838B-424EFADDD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-24015" yWindow="-11640" windowWidth="21600" windowHeight="11295" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism" sheetId="1" r:id="rId1"/>
@@ -38,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>R-squared</t>
   </si>
   <si>
-    <t>Choice commitment</t>
-  </si>
-  <si>
-    <t>Forced commitment</t>
-  </si>
-  <si>
     <t>Observations</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>$\Pr($Selling pawn)</t>
+  </si>
+  <si>
+    <t>Mandatory structured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice </t>
   </si>
 </sst>
 </file>
@@ -566,9 +566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -606,7 +606,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -712,7 +712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B463C252-3CBC-4DB9-9E7A-4F7C1165B369}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="A2:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,7 +883,7 @@
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -895,19 +895,19 @@
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -940,7 +940,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]mechanism!B5</f>
@@ -991,7 +991,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]mechanism!B8</f>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>[1]mechanism!B11</f>
@@ -1132,42 +1132,42 @@
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>[1]mechanism!G2</f>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism!G5</f>
@@ -1225,9 +1225,6 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
       <c r="B18" s="1" t="str">
         <f>[1]mechanism!G6</f>
         <v>(0.015)</v>
@@ -1255,7 +1252,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>[1]mechanism!G8</f>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>[1]mechanism!G9</f>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>[1]mechanism!G11</f>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>[1]mechanism!G13</f>
